--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="314">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1264,6 +1264,22 @@
   </si>
   <si>
     <t>https://arcteryx.com/ca/en/checkout/shipping</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Fsupport.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/member/login</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/member/register?join_type=member</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/member/find?mode=findid</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
@@ -2238,7 +2254,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2467,6 +2483,186 @@
     <xf numFmtId="0" fontId="5" fillId="38" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="36" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="35" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="35" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="39" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2539,185 +2735,11 @@
     <xf numFmtId="0" fontId="34" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="36" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="35" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="35" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="4" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="39" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3824,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -3849,23 +3871,23 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:13" ht="16.149999999999999" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="137" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="40"/>
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1">
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
       <c r="G3" s="40"/>
       <c r="H3" s="41"/>
       <c r="I3" s="42"/>
@@ -3877,70 +3899,70 @@
       <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="141" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="90" t="s">
+      <c r="I5" s="150" t="s">
         <v>255</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="136" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B6" s="79"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="2:13" s="19" customFormat="1" ht="14.45" customHeight="1">
       <c r="B8" s="45">
@@ -3964,7 +3986,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
-      <c r="M8" s="139" t="s">
+      <c r="M8" s="115" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4064,7 +4086,7 @@
       <c r="J12" s="59"/>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
-      <c r="M12" s="139" t="s">
+      <c r="M12" s="115" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4090,7 +4112,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="55"/>
       <c r="L13" s="55"/>
-      <c r="M13" s="139" t="s">
+      <c r="M13" s="115" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5178,25 +5200,25 @@
       <c r="B56" s="12">
         <v>49</v>
       </c>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="114" t="s">
+      <c r="D56" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="115"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="117" t="s">
+      <c r="E56" s="91"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="I56" s="118" t="s">
+      <c r="I56" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J56" s="37"/>
-      <c r="K56" s="115"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="115" t="s">
+      <c r="K56" s="91"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5204,27 +5226,27 @@
       <c r="B57" s="14">
         <v>50</v>
       </c>
-      <c r="C57" s="113" t="s">
+      <c r="C57" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="119" t="s">
+      <c r="D57" s="90"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="120" t="s">
+      <c r="G57" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H57" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="I57" s="118" t="s">
+      <c r="I57" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J57" s="37"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="115" t="s">
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5232,27 +5254,27 @@
       <c r="B58" s="12">
         <v>51</v>
       </c>
-      <c r="C58" s="113" t="s">
+      <c r="C58" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="114"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="119" t="s">
+      <c r="D58" s="90"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="120" t="s">
+      <c r="G58" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="H58" s="117" t="s">
+      <c r="H58" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="I58" s="118" t="s">
+      <c r="I58" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J58" s="37"/>
-      <c r="K58" s="115"/>
-      <c r="L58" s="115"/>
-      <c r="M58" s="115" t="s">
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5260,27 +5282,27 @@
       <c r="B59" s="12">
         <v>52</v>
       </c>
-      <c r="C59" s="113" t="s">
+      <c r="C59" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="114"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="119" t="s">
+      <c r="D59" s="90"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="120" t="s">
+      <c r="G59" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="H59" s="117" t="s">
+      <c r="H59" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="I59" s="118" t="s">
+      <c r="I59" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J59" s="37"/>
-      <c r="K59" s="121"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="115" t="s">
+      <c r="K59" s="97"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5288,25 +5310,25 @@
       <c r="B60" s="14">
         <v>53</v>
       </c>
-      <c r="C60" s="113" t="s">
+      <c r="C60" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="122"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="116" t="s">
+      <c r="D60" s="98"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="116"/>
-      <c r="H60" s="123" t="s">
+      <c r="G60" s="92"/>
+      <c r="H60" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="I60" s="118" t="s">
+      <c r="I60" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J60" s="37"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="115"/>
-      <c r="M60" s="115" t="s">
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5314,51 +5336,51 @@
       <c r="B61" s="12">
         <v>54</v>
       </c>
-      <c r="C61" s="113" t="s">
+      <c r="C61" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="122"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="116" t="s">
+      <c r="D61" s="98"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="116"/>
-      <c r="H61" s="123" t="s">
+      <c r="G61" s="92"/>
+      <c r="H61" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="I61" s="118" t="s">
+      <c r="I61" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J61" s="37"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="115" t="s">
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="62" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B62" s="100">
+      <c r="B62" s="76">
         <v>55</v>
       </c>
-      <c r="C62" s="125" t="s">
+      <c r="C62" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="127" t="s">
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="G62" s="128"/>
-      <c r="H62" s="129" t="s">
+      <c r="G62" s="104"/>
+      <c r="H62" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="I62" s="130" t="s">
+      <c r="I62" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="J62" s="131"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="115"/>
-      <c r="M62" s="115" t="s">
+      <c r="J62" s="107"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5366,25 +5388,25 @@
       <c r="B63" s="14">
         <v>56</v>
       </c>
-      <c r="C63" s="113" t="s">
+      <c r="C63" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="114"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="133" t="s">
+      <c r="D63" s="90"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="134"/>
-      <c r="H63" s="123" t="s">
+      <c r="G63" s="110"/>
+      <c r="H63" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="I63" s="118" t="s">
+      <c r="I63" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J63" s="37"/>
-      <c r="K63" s="115"/>
-      <c r="L63" s="115"/>
-      <c r="M63" s="115" t="s">
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5392,25 +5414,25 @@
       <c r="B64" s="12">
         <v>57</v>
       </c>
-      <c r="C64" s="113" t="s">
+      <c r="C64" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="135"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133" t="s">
+      <c r="D64" s="111"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="G64" s="134"/>
-      <c r="H64" s="123" t="s">
+      <c r="G64" s="110"/>
+      <c r="H64" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="I64" s="118" t="s">
+      <c r="I64" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J64" s="38"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115" t="s">
+      <c r="K64" s="91"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5418,27 +5440,27 @@
       <c r="B65" s="12">
         <v>58</v>
       </c>
-      <c r="C65" s="113" t="s">
+      <c r="C65" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="135"/>
-      <c r="E65" s="133"/>
-      <c r="F65" s="133" t="s">
+      <c r="D65" s="111"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="134" t="s">
+      <c r="G65" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="H65" s="123" t="s">
+      <c r="H65" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="I65" s="118" t="s">
+      <c r="I65" s="94" t="s">
         <v>242</v>
       </c>
       <c r="J65" s="38"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115" t="s">
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5446,26 +5468,26 @@
       <c r="B66" s="14">
         <v>59</v>
       </c>
-      <c r="C66" s="136" t="s">
+      <c r="C66" s="112" t="s">
         <v>183</v>
       </c>
       <c r="D66" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="E66" s="137"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="138" t="s">
+      <c r="E66" s="113"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="114" t="s">
         <v>276</v>
       </c>
-      <c r="I66" s="105" t="s">
+      <c r="I66" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J66" s="112"/>
-      <c r="K66" s="103"/>
-      <c r="L66" s="103"/>
-      <c r="M66" s="103" t="s">
-        <v>296</v>
+      <c r="J66" s="88"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="160" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5490,7 +5512,7 @@
       <c r="J67" s="65"/>
       <c r="K67" s="55"/>
       <c r="L67" s="55"/>
-      <c r="M67" s="139" t="s">
+      <c r="M67" s="115" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5516,7 +5538,7 @@
       <c r="J68" s="65"/>
       <c r="K68" s="55"/>
       <c r="L68" s="55"/>
-      <c r="M68" s="139" t="s">
+      <c r="M68" s="115" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5524,259 +5546,259 @@
       <c r="B69" s="68">
         <v>62</v>
       </c>
-      <c r="C69" s="136" t="s">
+      <c r="C69" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="102"/>
-      <c r="E69" s="110" t="s">
+      <c r="D69" s="78"/>
+      <c r="E69" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="F69" s="107"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="109" t="s">
+      <c r="F69" s="83"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="I69" s="105" t="s">
+      <c r="I69" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J69" s="106"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="103" t="s">
+      <c r="J69" s="82"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="70" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B70" s="151">
+      <c r="B70" s="127">
         <v>63</v>
       </c>
-      <c r="C70" s="136" t="s">
+      <c r="C70" s="112" t="s">
         <v>183</v>
       </c>
       <c r="D70" s="44"/>
-      <c r="E70" s="103" t="s">
+      <c r="E70" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="F70" s="110"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="109" t="s">
+      <c r="F70" s="86"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="I70" s="105" t="s">
+      <c r="I70" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J70" s="112"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="103"/>
-      <c r="M70" s="103" t="s">
+      <c r="J70" s="88"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="71" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B71" s="151">
+      <c r="B71" s="127">
         <v>64</v>
       </c>
-      <c r="C71" s="136" t="s">
+      <c r="C71" s="112" t="s">
         <v>183</v>
       </c>
       <c r="D71" s="44"/>
-      <c r="E71" s="110" t="s">
+      <c r="E71" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="F71" s="110"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="109" t="s">
+      <c r="F71" s="86"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="I71" s="105" t="s">
+      <c r="I71" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J71" s="112"/>
-      <c r="K71" s="103"/>
-      <c r="L71" s="103"/>
-      <c r="M71" s="103" t="s">
+      <c r="J71" s="88"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="72" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B72" s="153">
+      <c r="B72" s="129">
         <v>65</v>
       </c>
-      <c r="C72" s="140" t="s">
+      <c r="C72" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="145"/>
-      <c r="E72" s="141" t="s">
+      <c r="D72" s="121"/>
+      <c r="E72" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="F72" s="146"/>
-      <c r="G72" s="146"/>
-      <c r="H72" s="142" t="s">
+      <c r="F72" s="122"/>
+      <c r="G72" s="122"/>
+      <c r="H72" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="I72" s="143" t="s">
+      <c r="I72" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="J72" s="147"/>
-      <c r="K72" s="144"/>
-      <c r="L72" s="144"/>
-      <c r="M72" s="144" t="s">
+      <c r="J72" s="123"/>
+      <c r="K72" s="120"/>
+      <c r="L72" s="120"/>
+      <c r="M72" s="120" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="73" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B73" s="151">
+      <c r="B73" s="127">
         <v>66</v>
       </c>
-      <c r="C73" s="136" t="s">
+      <c r="C73" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="102"/>
-      <c r="E73" s="102" t="s">
+      <c r="D73" s="78"/>
+      <c r="E73" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="109" t="s">
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="I73" s="105" t="s">
+      <c r="I73" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J73" s="106"/>
-      <c r="K73" s="103"/>
-      <c r="L73" s="103"/>
-      <c r="M73" s="103" t="s">
+      <c r="J73" s="82"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="74" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B74" s="151">
+      <c r="B74" s="127">
         <v>67</v>
       </c>
-      <c r="C74" s="136" t="s">
+      <c r="C74" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D74" s="102"/>
-      <c r="E74" s="103" t="s">
+      <c r="D74" s="78"/>
+      <c r="E74" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="F74" s="104"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="109" t="s">
+      <c r="F74" s="80"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="I74" s="105" t="s">
+      <c r="I74" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J74" s="106"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="103"/>
-      <c r="M74" s="103" t="s">
+      <c r="J74" s="82"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="75" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B75" s="152">
+      <c r="B75" s="128">
         <v>68</v>
       </c>
-      <c r="C75" s="136" t="s">
+      <c r="C75" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D75" s="102"/>
-      <c r="E75" s="103" t="s">
+      <c r="D75" s="78"/>
+      <c r="E75" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="F75" s="104"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="109" t="s">
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="I75" s="105" t="s">
+      <c r="I75" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J75" s="106"/>
-      <c r="K75" s="103"/>
-      <c r="L75" s="103"/>
-      <c r="M75" s="103" t="s">
+      <c r="J75" s="82"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="76" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B76" s="151">
+      <c r="B76" s="127">
         <v>69</v>
       </c>
-      <c r="C76" s="136" t="s">
+      <c r="C76" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D76" s="102"/>
-      <c r="E76" s="103" t="s">
+      <c r="D76" s="78"/>
+      <c r="E76" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="109" t="s">
+      <c r="F76" s="80"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="I76" s="105" t="s">
+      <c r="I76" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J76" s="106"/>
-      <c r="K76" s="103"/>
-      <c r="L76" s="103"/>
-      <c r="M76" s="103" t="s">
+      <c r="J76" s="82"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="77" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B77" s="151">
+      <c r="B77" s="127">
         <v>70</v>
       </c>
-      <c r="C77" s="136" t="s">
+      <c r="C77" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="102"/>
-      <c r="E77" s="103" t="s">
+      <c r="D77" s="78"/>
+      <c r="E77" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="109" t="s">
+      <c r="F77" s="80"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="I77" s="105" t="s">
+      <c r="I77" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J77" s="106"/>
-      <c r="K77" s="103"/>
-      <c r="L77" s="103"/>
-      <c r="M77" s="103" t="s">
+      <c r="J77" s="82"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="78" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="152">
+      <c r="B78" s="128">
         <v>71</v>
       </c>
-      <c r="C78" s="136" t="s">
+      <c r="C78" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D78" s="104" t="s">
+      <c r="D78" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E78" s="148"/>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
-      <c r="H78" s="109" t="s">
+      <c r="E78" s="124"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="I78" s="105" t="s">
+      <c r="I78" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J78" s="106"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="103" t="s">
+      <c r="J78" s="82"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
+      <c r="M78" s="79" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5793,7 +5815,7 @@
       <c r="E79" s="31"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="149" t="s">
+      <c r="H79" s="125" t="s">
         <v>207</v>
       </c>
       <c r="I79" s="13" t="s">
@@ -5819,7 +5841,7 @@
       <c r="E80" s="31"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
-      <c r="H80" s="149" t="s">
+      <c r="H80" s="125" t="s">
         <v>208</v>
       </c>
       <c r="I80" s="13" t="s">
@@ -5833,28 +5855,28 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1">
-      <c r="B81" s="153">
+      <c r="B81" s="129">
         <v>74</v>
       </c>
-      <c r="C81" s="140" t="s">
+      <c r="C81" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="144" t="s">
+      <c r="D81" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E81" s="146"/>
-      <c r="F81" s="146"/>
-      <c r="G81" s="146"/>
-      <c r="H81" s="142" t="s">
+      <c r="E81" s="122"/>
+      <c r="F81" s="122"/>
+      <c r="G81" s="122"/>
+      <c r="H81" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="I81" s="143" t="s">
+      <c r="I81" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="J81" s="147"/>
-      <c r="K81" s="144"/>
-      <c r="L81" s="144"/>
-      <c r="M81" s="144" t="s">
+      <c r="J81" s="123"/>
+      <c r="K81" s="120"/>
+      <c r="L81" s="120"/>
+      <c r="M81" s="120" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5871,7 +5893,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="149" t="s">
+      <c r="H82" s="125" t="s">
         <v>213</v>
       </c>
       <c r="I82" s="13" t="s">
@@ -5885,271 +5907,271 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1">
-      <c r="A83" s="137"/>
-      <c r="B83" s="151">
+      <c r="A83" s="113"/>
+      <c r="B83" s="127">
         <v>76</v>
       </c>
-      <c r="C83" s="136" t="s">
+      <c r="C83" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="104" t="s">
+      <c r="D83" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="E83" s="104"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="104"/>
-      <c r="H83" s="138" t="s">
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="I83" s="105" t="s">
+      <c r="I83" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J83" s="106"/>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
-      <c r="M83" s="103" t="s">
+      <c r="J83" s="82"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1">
-      <c r="A84" s="137"/>
-      <c r="B84" s="152">
+      <c r="A84" s="113"/>
+      <c r="B84" s="128">
         <v>77</v>
       </c>
-      <c r="C84" s="136" t="s">
+      <c r="C84" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D84" s="104" t="s">
+      <c r="D84" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="E84" s="104"/>
-      <c r="F84" s="104"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="109" t="s">
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="I84" s="105" t="s">
+      <c r="I84" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J84" s="106"/>
-      <c r="K84" s="103"/>
-      <c r="L84" s="103"/>
-      <c r="M84" s="103" t="s">
+      <c r="J84" s="82"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1">
-      <c r="A85" s="137"/>
-      <c r="B85" s="151">
+      <c r="A85" s="113"/>
+      <c r="B85" s="127">
         <v>78</v>
       </c>
-      <c r="C85" s="136" t="s">
+      <c r="C85" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D85" s="104" t="s">
+      <c r="D85" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="104"/>
-      <c r="H85" s="138" t="s">
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="80"/>
+      <c r="H85" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="I85" s="105" t="s">
+      <c r="I85" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J85" s="106"/>
-      <c r="K85" s="103"/>
-      <c r="L85" s="103"/>
-      <c r="M85" s="103" t="s">
+      <c r="J85" s="82"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
+      <c r="M85" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1">
-      <c r="A86" s="137"/>
-      <c r="B86" s="151">
+      <c r="A86" s="113"/>
+      <c r="B86" s="127">
         <v>79</v>
       </c>
-      <c r="C86" s="136" t="s">
+      <c r="C86" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D86" s="104" t="s">
+      <c r="D86" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="E86" s="104"/>
-      <c r="F86" s="104"/>
-      <c r="G86" s="104"/>
-      <c r="H86" s="138" t="s">
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="I86" s="105" t="s">
+      <c r="I86" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J86" s="106"/>
-      <c r="K86" s="103"/>
-      <c r="L86" s="103"/>
-      <c r="M86" s="103" t="s">
+      <c r="J86" s="82"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
-      <c r="A87" s="137"/>
-      <c r="B87" s="152">
+      <c r="A87" s="113"/>
+      <c r="B87" s="128">
         <v>80</v>
       </c>
-      <c r="C87" s="136" t="s">
+      <c r="C87" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D87" s="104" t="s">
+      <c r="D87" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="E87" s="104"/>
-      <c r="F87" s="104"/>
-      <c r="G87" s="104"/>
-      <c r="H87" s="138" t="s">
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="I87" s="105" t="s">
+      <c r="I87" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J87" s="106"/>
-      <c r="K87" s="103"/>
-      <c r="L87" s="103"/>
-      <c r="M87" s="103" t="s">
+      <c r="J87" s="82"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
+      <c r="M87" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1">
-      <c r="B88" s="151">
+      <c r="B88" s="127">
         <v>81</v>
       </c>
-      <c r="C88" s="136" t="s">
+      <c r="C88" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D88" s="104" t="s">
+      <c r="D88" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="E88" s="104"/>
-      <c r="F88" s="104"/>
-      <c r="G88" s="104"/>
-      <c r="H88" s="138" t="s">
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="H88" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="I88" s="105" t="s">
+      <c r="I88" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="J88" s="106"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="103"/>
-      <c r="M88" s="103" t="s">
+      <c r="J88" s="82"/>
+      <c r="K88" s="79"/>
+      <c r="L88" s="79"/>
+      <c r="M88" s="79" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1">
-      <c r="A89" s="154"/>
-      <c r="B89" s="153">
+      <c r="A89" s="130"/>
+      <c r="B89" s="129">
         <v>82</v>
       </c>
-      <c r="C89" s="140" t="s">
+      <c r="C89" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D89" s="146" t="s">
+      <c r="D89" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="146"/>
-      <c r="H89" s="155" t="s">
+      <c r="E89" s="122"/>
+      <c r="F89" s="122"/>
+      <c r="G89" s="122"/>
+      <c r="H89" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="I89" s="143" t="s">
+      <c r="I89" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="J89" s="147"/>
-      <c r="K89" s="144"/>
-      <c r="L89" s="144"/>
-      <c r="M89" s="144" t="s">
+      <c r="J89" s="123"/>
+      <c r="K89" s="120"/>
+      <c r="L89" s="120"/>
+      <c r="M89" s="120" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1">
-      <c r="A90" s="154"/>
-      <c r="B90" s="156">
+      <c r="A90" s="130"/>
+      <c r="B90" s="132">
         <v>83</v>
       </c>
-      <c r="C90" s="140" t="s">
+      <c r="C90" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="146" t="s">
+      <c r="D90" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="146"/>
-      <c r="F90" s="146"/>
-      <c r="G90" s="146"/>
-      <c r="H90" s="155" t="s">
+      <c r="E90" s="122"/>
+      <c r="F90" s="122"/>
+      <c r="G90" s="122"/>
+      <c r="H90" s="131" t="s">
         <v>279</v>
       </c>
-      <c r="I90" s="143" t="s">
+      <c r="I90" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="J90" s="147"/>
-      <c r="K90" s="144"/>
-      <c r="L90" s="144"/>
-      <c r="M90" s="144" t="s">
+      <c r="J90" s="123"/>
+      <c r="K90" s="120"/>
+      <c r="L90" s="120"/>
+      <c r="M90" s="120" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="B91" s="153">
+      <c r="B91" s="129">
         <v>84</v>
       </c>
-      <c r="C91" s="157" t="s">
+      <c r="C91" s="133" t="s">
         <v>264</v>
       </c>
-      <c r="D91" s="146" t="s">
+      <c r="D91" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="E91" s="146" t="s">
+      <c r="E91" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="F91" s="146"/>
-      <c r="G91" s="146"/>
-      <c r="H91" s="142" t="s">
+      <c r="F91" s="122"/>
+      <c r="G91" s="122"/>
+      <c r="H91" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="I91" s="143" t="s">
+      <c r="I91" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="J91" s="147"/>
-      <c r="K91" s="144"/>
-      <c r="L91" s="144"/>
-      <c r="M91" s="144" t="s">
+      <c r="J91" s="123"/>
+      <c r="K91" s="120"/>
+      <c r="L91" s="120"/>
+      <c r="M91" s="120" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="B92" s="156">
+      <c r="B92" s="132">
         <v>85</v>
       </c>
-      <c r="C92" s="157" t="s">
+      <c r="C92" s="133" t="s">
         <v>264</v>
       </c>
-      <c r="D92" s="146"/>
-      <c r="E92" s="146" t="s">
+      <c r="D92" s="122"/>
+      <c r="E92" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="F92" s="146"/>
-      <c r="G92" s="146"/>
-      <c r="H92" s="155" t="s">
+      <c r="F92" s="122"/>
+      <c r="G92" s="122"/>
+      <c r="H92" s="131" t="s">
         <v>278</v>
       </c>
-      <c r="I92" s="143" t="s">
+      <c r="I92" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="J92" s="147"/>
-      <c r="K92" s="144"/>
-      <c r="L92" s="144"/>
-      <c r="M92" s="144" t="s">
+      <c r="J92" s="123"/>
+      <c r="K92" s="120"/>
+      <c r="L92" s="120"/>
+      <c r="M92" s="120" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6157,7 +6179,7 @@
       <c r="B93" s="14">
         <v>86</v>
       </c>
-      <c r="C93" s="158" t="s">
+      <c r="C93" s="134" t="s">
         <v>264</v>
       </c>
       <c r="D93" s="16"/>
@@ -6166,7 +6188,7 @@
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="150" t="s">
+      <c r="H93" s="126" t="s">
         <v>302</v>
       </c>
       <c r="I93" s="13" t="s">
@@ -6190,7 +6212,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="150" t="s">
+      <c r="H94" s="126" t="s">
         <v>277</v>
       </c>
       <c r="I94" s="13" t="s">
@@ -6216,7 +6238,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
-      <c r="H95" s="150" t="s">
+      <c r="H95" s="126" t="s">
         <v>303</v>
       </c>
       <c r="I95" s="13" t="s">
@@ -6227,7 +6249,7 @@
       </c>
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
-      <c r="M95" s="101" t="s">
+      <c r="M95" s="77" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6242,7 +6264,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
-      <c r="H96" s="150" t="s">
+      <c r="H96" s="126" t="s">
         <v>305</v>
       </c>
       <c r="I96" s="13" t="s">
@@ -6258,75 +6280,75 @@
       </c>
     </row>
     <row r="97" spans="2:13" ht="15" customHeight="1">
-      <c r="B97" s="153">
+      <c r="B97" s="129">
         <v>90</v>
       </c>
-      <c r="C97" s="140" t="s">
+      <c r="C97" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="D97" s="146"/>
-      <c r="E97" s="146"/>
-      <c r="F97" s="146"/>
-      <c r="G97" s="146"/>
-      <c r="H97" s="155" t="s">
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="122"/>
+      <c r="G97" s="122"/>
+      <c r="H97" s="131" t="s">
         <v>306</v>
       </c>
-      <c r="I97" s="143" t="s">
+      <c r="I97" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="J97" s="147"/>
-      <c r="K97" s="144"/>
-      <c r="L97" s="144"/>
-      <c r="M97" s="144" t="s">
-        <v>299</v>
+      <c r="J97" s="123"/>
+      <c r="K97" s="120"/>
+      <c r="L97" s="120"/>
+      <c r="M97" s="161" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="15" customHeight="1">
-      <c r="B98" s="156">
+      <c r="B98" s="132">
         <v>91</v>
       </c>
-      <c r="C98" s="140" t="s">
+      <c r="C98" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="D98" s="146"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="146"/>
-      <c r="G98" s="146"/>
-      <c r="H98" s="155" t="s">
+      <c r="D98" s="122"/>
+      <c r="E98" s="122"/>
+      <c r="F98" s="122"/>
+      <c r="G98" s="122"/>
+      <c r="H98" s="131" t="s">
         <v>307</v>
       </c>
-      <c r="I98" s="143" t="s">
+      <c r="I98" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="J98" s="147"/>
-      <c r="K98" s="144"/>
-      <c r="L98" s="144"/>
-      <c r="M98" s="144" t="s">
-        <v>299</v>
+      <c r="J98" s="123"/>
+      <c r="K98" s="120"/>
+      <c r="L98" s="120"/>
+      <c r="M98" s="161" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="15" customHeight="1">
-      <c r="B99" s="153">
+      <c r="B99" s="129">
         <v>92</v>
       </c>
-      <c r="C99" s="140" t="s">
+      <c r="C99" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="146"/>
-      <c r="E99" s="146"/>
-      <c r="F99" s="146"/>
-      <c r="G99" s="146"/>
-      <c r="H99" s="155" t="s">
+      <c r="D99" s="122"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="122"/>
+      <c r="G99" s="122"/>
+      <c r="H99" s="131" t="s">
         <v>308</v>
       </c>
-      <c r="I99" s="143" t="s">
+      <c r="I99" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="J99" s="147"/>
-      <c r="K99" s="144"/>
-      <c r="L99" s="144"/>
-      <c r="M99" s="144" t="s">
-        <v>299</v>
+      <c r="J99" s="123"/>
+      <c r="K99" s="120"/>
+      <c r="L99" s="120"/>
+      <c r="M99" s="161" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="15" customHeight="1">
@@ -6340,7 +6362,7 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
-      <c r="H100" s="150" t="s">
+      <c r="H100" s="126" t="s">
         <v>249</v>
       </c>
       <c r="I100" s="13" t="s">
@@ -6364,7 +6386,7 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
-      <c r="H101" s="150" t="s">
+      <c r="H101" s="126" t="s">
         <v>309</v>
       </c>
       <c r="I101" s="13" t="s">
@@ -6388,7 +6410,7 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
-      <c r="H102" s="159"/>
+      <c r="H102" s="135"/>
       <c r="I102" s="13" t="s">
         <v>210</v>
       </c>
@@ -6578,9 +6600,13 @@
     <hyperlink ref="M67" r:id="rId83"/>
     <hyperlink ref="M68" r:id="rId84"/>
     <hyperlink ref="M95" r:id="rId85" display="http://arcteryx.firstmall.kr/goods/catalog?code=0001"/>
+    <hyperlink ref="M66" r:id="rId86"/>
+    <hyperlink ref="M97" r:id="rId87"/>
+    <hyperlink ref="M99" r:id="rId88"/>
+    <hyperlink ref="M98" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId90"/>
 </worksheet>
 </file>
 
@@ -6610,22 +6636,22 @@
   <sheetData>
     <row r="1" spans="2:9" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:9" ht="16.149999999999999" customHeight="1">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
       <c r="G2" s="3"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="3"/>
       <c r="H3" s="35"/>
     </row>
@@ -6636,50 +6662,50 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="141" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="150" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="153" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B6" s="79"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="94"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="154"/>
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="95"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="155"/>
     </row>
     <row r="8" spans="2:9" s="19" customFormat="1" ht="10.5" customHeight="1">
       <c r="B8" s="12">

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="319">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1223,10 +1223,6 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>기존페이지 수정</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>중복</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -1280,13 +1276,37 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/member/find?mode=findid</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/mypage/myinfo</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/mypage/order_catalog</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/service/privacy?designMode=1</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/service/agreement?designMode=1</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/mypage/return_catalog</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -2663,6 +2683,12 @@
     <xf numFmtId="0" fontId="48" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2734,12 +2760,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3391,7 +3411,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,7 +3460,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,7 +3504,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3548,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3846,8 +3866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -3871,23 +3891,23 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:13" ht="16.149999999999999" customHeight="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="139" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="40"/>
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1">
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
       <c r="G3" s="40"/>
       <c r="H3" s="41"/>
       <c r="I3" s="42"/>
@@ -3899,70 +3919,70 @@
       <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="143" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="144" t="s">
+      <c r="F5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="146" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="152" t="s">
         <v>255</v>
       </c>
-      <c r="J5" s="153" t="s">
+      <c r="J5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="136" t="s">
+      <c r="K5" s="138" t="s">
         <v>274</v>
       </c>
-      <c r="L5" s="136" t="s">
+      <c r="L5" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="M5" s="136" t="s">
+      <c r="M5" s="138" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B6" s="139"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B7" s="140"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
     </row>
     <row r="8" spans="2:13" s="19" customFormat="1" ht="14.45" customHeight="1">
       <c r="B8" s="45">
@@ -5486,8 +5506,8 @@
       <c r="J66" s="88"/>
       <c r="K66" s="79"/>
       <c r="L66" s="79"/>
-      <c r="M66" s="160" t="s">
-        <v>310</v>
+      <c r="M66" s="136" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5642,8 +5662,8 @@
       <c r="J72" s="123"/>
       <c r="K72" s="120"/>
       <c r="L72" s="120"/>
-      <c r="M72" s="120" t="s">
-        <v>299</v>
+      <c r="M72" s="137" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5825,7 +5845,7 @@
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
       <c r="M79" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5851,7 +5871,7 @@
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1">
@@ -5876,8 +5896,8 @@
       <c r="J81" s="123"/>
       <c r="K81" s="120"/>
       <c r="L81" s="120"/>
-      <c r="M81" s="120" t="s">
-        <v>299</v>
+      <c r="M81" s="137" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1">
@@ -5903,7 +5923,7 @@
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
       <c r="M82" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1">
@@ -6090,8 +6110,8 @@
       <c r="J89" s="123"/>
       <c r="K89" s="120"/>
       <c r="L89" s="120"/>
-      <c r="M89" s="120" t="s">
-        <v>299</v>
+      <c r="M89" s="137" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1">
@@ -6117,8 +6137,8 @@
       <c r="J90" s="123"/>
       <c r="K90" s="120"/>
       <c r="L90" s="120"/>
-      <c r="M90" s="120" t="s">
-        <v>299</v>
+      <c r="M90" s="137" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6145,8 +6165,8 @@
       <c r="J91" s="123"/>
       <c r="K91" s="120"/>
       <c r="L91" s="120"/>
-      <c r="M91" s="120" t="s">
-        <v>299</v>
+      <c r="M91" s="137" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6171,8 +6191,8 @@
       <c r="J92" s="123"/>
       <c r="K92" s="120"/>
       <c r="L92" s="120"/>
-      <c r="M92" s="120" t="s">
-        <v>299</v>
+      <c r="M92" s="137" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6189,7 +6209,7 @@
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>210</v>
@@ -6198,7 +6218,7 @@
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
       <c r="M93" s="24" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1">
@@ -6224,7 +6244,7 @@
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
       <c r="M94" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1">
@@ -6239,7 +6259,7 @@
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>251</v>
@@ -6250,7 +6270,7 @@
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
       <c r="M95" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1">
@@ -6265,7 +6285,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="126" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>210</v>
@@ -6276,7 +6296,7 @@
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
       <c r="M96" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="15" customHeight="1">
@@ -6291,7 +6311,7 @@
       <c r="F97" s="122"/>
       <c r="G97" s="122"/>
       <c r="H97" s="131" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I97" s="119" t="s">
         <v>210</v>
@@ -6299,8 +6319,8 @@
       <c r="J97" s="123"/>
       <c r="K97" s="120"/>
       <c r="L97" s="120"/>
-      <c r="M97" s="161" t="s">
-        <v>311</v>
+      <c r="M97" s="137" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="15" customHeight="1">
@@ -6315,7 +6335,7 @@
       <c r="F98" s="122"/>
       <c r="G98" s="122"/>
       <c r="H98" s="131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I98" s="119" t="s">
         <v>210</v>
@@ -6323,8 +6343,8 @@
       <c r="J98" s="123"/>
       <c r="K98" s="120"/>
       <c r="L98" s="120"/>
-      <c r="M98" s="161" t="s">
-        <v>313</v>
+      <c r="M98" s="137" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="15" customHeight="1">
@@ -6339,7 +6359,7 @@
       <c r="F99" s="122"/>
       <c r="G99" s="122"/>
       <c r="H99" s="131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I99" s="119" t="s">
         <v>210</v>
@@ -6347,8 +6367,8 @@
       <c r="J99" s="123"/>
       <c r="K99" s="120"/>
       <c r="L99" s="120"/>
-      <c r="M99" s="161" t="s">
-        <v>312</v>
+      <c r="M99" s="137" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="15" customHeight="1">
@@ -6372,7 +6392,7 @@
       <c r="K100" s="24"/>
       <c r="L100" s="24"/>
       <c r="M100" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="16.149999999999999" customHeight="1">
@@ -6387,7 +6407,7 @@
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I101" s="13" t="s">
         <v>210</v>
@@ -6396,7 +6416,7 @@
       <c r="K101" s="24"/>
       <c r="L101" s="24"/>
       <c r="M101" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="16.899999999999999" customHeight="1">
@@ -6604,9 +6624,15 @@
     <hyperlink ref="M97" r:id="rId87"/>
     <hyperlink ref="M99" r:id="rId88"/>
     <hyperlink ref="M98" r:id="rId89"/>
+    <hyperlink ref="M91" r:id="rId90"/>
+    <hyperlink ref="M92" r:id="rId91"/>
+    <hyperlink ref="M89" r:id="rId92"/>
+    <hyperlink ref="M90" r:id="rId93"/>
+    <hyperlink ref="M81" r:id="rId94"/>
+    <hyperlink ref="M72" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId96"/>
 </worksheet>
 </file>
 
@@ -6636,22 +6662,22 @@
   <sheetData>
     <row r="1" spans="2:9" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:9" ht="16.149999999999999" customHeight="1">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
       <c r="G2" s="3"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="3"/>
       <c r="H3" s="35"/>
     </row>
@@ -6662,50 +6688,50 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="143" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="144" t="s">
+      <c r="F5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="157" t="s">
+      <c r="G5" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="150" t="s">
+      <c r="H5" s="152" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="153" t="s">
+      <c r="I5" s="155" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B6" s="139"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="154"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="156"/>
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B7" s="140"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="155"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="157"/>
     </row>
     <row r="8" spans="2:9" s="19" customFormat="1" ht="10.5" customHeight="1">
       <c r="B8" s="12">

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="326">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1300,13 +1300,41 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/mypage/return_catalog</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Fcare.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Fdelivery.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Ffaq.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Fmanuals.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=mypage%2Freturn_step.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Fprogram_faq.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Fcounterfeit.html</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -3411,7 +3439,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3488,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3532,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,7 +3576,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3866,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -5584,8 +5612,8 @@
       <c r="J69" s="82"/>
       <c r="K69" s="79"/>
       <c r="L69" s="79"/>
-      <c r="M69" s="79" t="s">
-        <v>296</v>
+      <c r="M69" s="136" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5610,8 +5638,8 @@
       <c r="J70" s="88"/>
       <c r="K70" s="79"/>
       <c r="L70" s="79"/>
-      <c r="M70" s="79" t="s">
-        <v>296</v>
+      <c r="M70" s="136" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5636,8 +5664,8 @@
       <c r="J71" s="88"/>
       <c r="K71" s="79"/>
       <c r="L71" s="79"/>
-      <c r="M71" s="79" t="s">
-        <v>296</v>
+      <c r="M71" s="136" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5688,8 +5716,8 @@
       <c r="J73" s="82"/>
       <c r="K73" s="79"/>
       <c r="L73" s="79"/>
-      <c r="M73" s="79" t="s">
-        <v>296</v>
+      <c r="M73" s="136" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5714,8 +5742,8 @@
       <c r="J74" s="82"/>
       <c r="K74" s="79"/>
       <c r="L74" s="79"/>
-      <c r="M74" s="79" t="s">
-        <v>296</v>
+      <c r="M74" s="136" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5740,8 +5768,8 @@
       <c r="J75" s="82"/>
       <c r="K75" s="79"/>
       <c r="L75" s="79"/>
-      <c r="M75" s="79" t="s">
-        <v>296</v>
+      <c r="M75" s="136" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5766,8 +5794,8 @@
       <c r="J76" s="82"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
-      <c r="M76" s="79" t="s">
-        <v>296</v>
+      <c r="M76" s="136" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -6630,9 +6658,16 @@
     <hyperlink ref="M90" r:id="rId93"/>
     <hyperlink ref="M81" r:id="rId94"/>
     <hyperlink ref="M72" r:id="rId95"/>
+    <hyperlink ref="M69" r:id="rId96"/>
+    <hyperlink ref="M71" r:id="rId97"/>
+    <hyperlink ref="M73" r:id="rId98"/>
+    <hyperlink ref="M74" r:id="rId99"/>
+    <hyperlink ref="M70" r:id="rId100"/>
+    <hyperlink ref="M75" r:id="rId101"/>
+    <hyperlink ref="M76" r:id="rId102"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
 </worksheet>
 </file>
 
@@ -6640,9 +6675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="329">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -884,10 +884,6 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>SUSTAINABILITY</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>PRO PROGRAM</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -1328,13 +1324,29 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Fcounterfeit.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=service%2Fscheme.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fprocline_boot.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUSTAINABILITY</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fsustainability.html</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -3439,7 +3451,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3500,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,7 +3544,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3588,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3895,7 +3907,7 @@
   <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -3920,7 +3932,7 @@
     <row r="1" spans="2:13" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:13" ht="16.149999999999999" customHeight="1">
       <c r="B2" s="139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="139"/>
       <c r="D2" s="139"/>
@@ -3951,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="143" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D5" s="146" t="s">
         <v>3</v>
@@ -3969,19 +3981,19 @@
         <v>18</v>
       </c>
       <c r="I5" s="152" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J5" s="155" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="138" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" s="138" t="s">
         <v>274</v>
       </c>
-      <c r="L5" s="138" t="s">
-        <v>275</v>
-      </c>
       <c r="M5" s="138" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="16.5" customHeight="1">
@@ -4017,13 +4029,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -4035,7 +4047,7 @@
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="M8" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="2:13" s="19" customFormat="1" ht="14.45" customHeight="1">
@@ -4043,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>135</v>
@@ -4063,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>136</v>
@@ -4081,7 +4093,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="M10" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="2:13" s="19" customFormat="1" ht="14.45" customHeight="1">
@@ -4089,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>137</v>
@@ -4098,16 +4110,16 @@
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
       <c r="H11" s="75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
       <c r="M11" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4124,18 +4136,18 @@
         <v>100</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G12" s="61"/>
       <c r="H12" s="57"/>
       <c r="I12" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J12" s="59"/>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
       <c r="M12" s="115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4150,18 +4162,18 @@
         <v>101</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G13" s="61"/>
       <c r="H13" s="57"/>
       <c r="I13" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="55"/>
       <c r="L13" s="55"/>
       <c r="M13" s="115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="19" customFormat="1" ht="15.6" customHeight="1">
@@ -4176,18 +4188,18 @@
         <v>102</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J14" s="49"/>
       <c r="K14" s="52"/>
       <c r="L14" s="52"/>
       <c r="M14" s="52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="2:13" s="19" customFormat="1" ht="15.6" customHeight="1">
@@ -4202,18 +4214,18 @@
         <v>105</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="47"/>
       <c r="I15" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
       <c r="M15" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4228,18 +4240,18 @@
         <v>103</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="53"/>
       <c r="H16" s="47"/>
       <c r="I16" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J16" s="49"/>
       <c r="K16" s="52"/>
       <c r="L16" s="52"/>
       <c r="M16" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4261,7 +4273,7 @@
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
       <c r="M17" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4281,13 +4293,13 @@
         <v>139</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J18" s="49"/>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
       <c r="M18" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4307,13 +4319,13 @@
         <v>140</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J19" s="49"/>
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4333,13 +4345,13 @@
         <v>141</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J20" s="49"/>
       <c r="K20" s="52"/>
       <c r="L20" s="52"/>
       <c r="M20" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4359,13 +4371,13 @@
         <v>142</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="52"/>
       <c r="L21" s="52"/>
       <c r="M21" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4385,13 +4397,13 @@
         <v>143</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J22" s="49"/>
       <c r="K22" s="52"/>
       <c r="L22" s="52"/>
       <c r="M22" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4411,13 +4423,13 @@
         <v>211</v>
       </c>
       <c r="I23" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J23" s="49"/>
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4437,13 +4449,13 @@
         <v>144</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J24" s="49"/>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4465,7 +4477,7 @@
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4485,13 +4497,13 @@
         <v>145</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J26" s="49"/>
       <c r="K26" s="52"/>
       <c r="L26" s="52"/>
       <c r="M26" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4511,13 +4523,13 @@
         <v>146</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J27" s="49"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
       <c r="M27" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4537,13 +4549,13 @@
         <v>147</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J28" s="49"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
       <c r="M28" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4563,13 +4575,13 @@
         <v>148</v>
       </c>
       <c r="I29" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J29" s="49"/>
       <c r="K29" s="52"/>
       <c r="L29" s="52"/>
       <c r="M29" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4595,7 +4607,7 @@
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
       <c r="M30" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4608,20 +4620,20 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52"/>
       <c r="F31" s="53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="47" t="s">
         <v>150</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J31" s="49"/>
       <c r="K31" s="52"/>
       <c r="L31" s="52"/>
       <c r="M31" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4641,13 +4653,13 @@
         <v>152</v>
       </c>
       <c r="I32" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J32" s="49"/>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4663,19 +4675,19 @@
         <v>122</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H33" s="47" t="s">
         <v>151</v>
       </c>
       <c r="I33" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J33" s="49"/>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4692,18 +4704,18 @@
         <v>100</v>
       </c>
       <c r="F34" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G34" s="53"/>
       <c r="H34" s="47"/>
       <c r="I34" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J34" s="49"/>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
       <c r="M34" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4718,18 +4730,18 @@
         <v>101</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G35" s="53"/>
       <c r="H35" s="47"/>
       <c r="I35" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J35" s="49"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4744,18 +4756,18 @@
         <v>102</v>
       </c>
       <c r="F36" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G36" s="53"/>
       <c r="H36" s="47"/>
       <c r="I36" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J36" s="49"/>
       <c r="K36" s="52"/>
       <c r="L36" s="52"/>
       <c r="M36" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4770,18 +4782,18 @@
         <v>105</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="47"/>
       <c r="I37" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J37" s="49"/>
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
       <c r="M37" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4796,18 +4808,18 @@
         <v>103</v>
       </c>
       <c r="F38" s="69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="70"/>
       <c r="I38" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J38" s="49"/>
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
       <c r="M38" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4829,7 +4841,7 @@
       <c r="K39" s="52"/>
       <c r="L39" s="52"/>
       <c r="M39" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4849,13 +4861,13 @@
         <v>153</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J40" s="49"/>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
       <c r="M40" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4875,13 +4887,13 @@
         <v>154</v>
       </c>
       <c r="I41" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J41" s="49"/>
       <c r="K41" s="52"/>
       <c r="L41" s="52"/>
       <c r="M41" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4901,13 +4913,13 @@
         <v>155</v>
       </c>
       <c r="I42" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J42" s="49"/>
       <c r="K42" s="52"/>
       <c r="L42" s="52"/>
       <c r="M42" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4927,13 +4939,13 @@
         <v>156</v>
       </c>
       <c r="I43" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J43" s="49"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
       <c r="M43" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4953,13 +4965,13 @@
         <v>158</v>
       </c>
       <c r="I44" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J44" s="49"/>
       <c r="K44" s="52"/>
       <c r="L44" s="52"/>
       <c r="M44" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -4979,13 +4991,13 @@
         <v>157</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J45" s="49"/>
       <c r="K45" s="52"/>
       <c r="L45" s="52"/>
       <c r="M45" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5005,13 +5017,13 @@
         <v>159</v>
       </c>
       <c r="I46" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J46" s="49"/>
       <c r="K46" s="52"/>
       <c r="L46" s="52"/>
       <c r="M46" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5033,7 +5045,7 @@
       <c r="K47" s="52"/>
       <c r="L47" s="52"/>
       <c r="M47" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5053,13 +5065,13 @@
         <v>160</v>
       </c>
       <c r="I48" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J48" s="49"/>
       <c r="K48" s="52"/>
       <c r="L48" s="52"/>
       <c r="M48" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5079,13 +5091,13 @@
         <v>161</v>
       </c>
       <c r="I49" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J49" s="49"/>
       <c r="K49" s="52"/>
       <c r="L49" s="52"/>
       <c r="M49" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5105,13 +5117,13 @@
         <v>162</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J50" s="49"/>
       <c r="K50" s="52"/>
       <c r="L50" s="52"/>
       <c r="M50" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5131,13 +5143,13 @@
         <v>163</v>
       </c>
       <c r="I51" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J51" s="49"/>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
       <c r="M51" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5163,7 +5175,7 @@
       <c r="K52" s="52"/>
       <c r="L52" s="52"/>
       <c r="M52" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5183,13 +5195,13 @@
         <v>165</v>
       </c>
       <c r="I53" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J53" s="49"/>
       <c r="K53" s="52"/>
       <c r="L53" s="52"/>
       <c r="M53" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5209,13 +5221,13 @@
         <v>166</v>
       </c>
       <c r="I54" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J54" s="49"/>
       <c r="K54" s="52"/>
       <c r="L54" s="52"/>
       <c r="M54" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5235,13 +5247,13 @@
         <v>167</v>
       </c>
       <c r="I55" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J55" s="49"/>
       <c r="K55" s="52"/>
       <c r="L55" s="52"/>
       <c r="M55" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5258,16 +5270,16 @@
       <c r="F56" s="92"/>
       <c r="G56" s="92"/>
       <c r="H56" s="93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I56" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J56" s="37"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="2:13" s="19" customFormat="1" ht="33.75">
@@ -5289,13 +5301,13 @@
         <v>168</v>
       </c>
       <c r="I57" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J57" s="37"/>
       <c r="K57" s="91"/>
       <c r="L57" s="91"/>
       <c r="M57" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="2:13" s="19" customFormat="1" ht="22.5">
@@ -5317,13 +5329,13 @@
         <v>173</v>
       </c>
       <c r="I58" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J58" s="37"/>
       <c r="K58" s="91"/>
       <c r="L58" s="91"/>
       <c r="M58" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="2:13" s="19" customFormat="1" ht="78.75">
@@ -5345,13 +5357,13 @@
         <v>172</v>
       </c>
       <c r="I59" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J59" s="37"/>
       <c r="K59" s="97"/>
       <c r="L59" s="91"/>
       <c r="M59" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5371,13 +5383,13 @@
         <v>175</v>
       </c>
       <c r="I60" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J60" s="37"/>
       <c r="K60" s="91"/>
       <c r="L60" s="91"/>
       <c r="M60" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5397,13 +5409,13 @@
         <v>176</v>
       </c>
       <c r="I61" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J61" s="37"/>
       <c r="K61" s="91"/>
       <c r="L61" s="91"/>
       <c r="M61" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5423,13 +5435,13 @@
         <v>177</v>
       </c>
       <c r="I62" s="106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J62" s="107"/>
       <c r="K62" s="108"/>
       <c r="L62" s="91"/>
       <c r="M62" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5449,13 +5461,13 @@
         <v>178</v>
       </c>
       <c r="I63" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J63" s="37"/>
       <c r="K63" s="91"/>
       <c r="L63" s="91"/>
       <c r="M63" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5475,13 +5487,13 @@
         <v>179</v>
       </c>
       <c r="I64" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J64" s="38"/>
       <c r="K64" s="91"/>
       <c r="L64" s="91"/>
       <c r="M64" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="2:13" s="19" customFormat="1" ht="33.75">
@@ -5503,13 +5515,13 @@
         <v>180</v>
       </c>
       <c r="I65" s="94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J65" s="38"/>
       <c r="K65" s="91"/>
       <c r="L65" s="91"/>
       <c r="M65" s="91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5526,16 +5538,16 @@
       <c r="F66" s="86"/>
       <c r="G66" s="87"/>
       <c r="H66" s="114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I66" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J66" s="88"/>
       <c r="K66" s="79"/>
       <c r="L66" s="79"/>
       <c r="M66" s="136" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5552,16 +5564,16 @@
       <c r="F67" s="63"/>
       <c r="G67" s="64"/>
       <c r="H67" s="75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I67" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J67" s="65"/>
       <c r="K67" s="55"/>
       <c r="L67" s="55"/>
       <c r="M67" s="115" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5578,16 +5590,16 @@
       <c r="F68" s="63"/>
       <c r="G68" s="64"/>
       <c r="H68" s="75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I68" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J68" s="65"/>
       <c r="K68" s="55"/>
       <c r="L68" s="55"/>
       <c r="M68" s="115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5607,13 +5619,13 @@
         <v>197</v>
       </c>
       <c r="I69" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J69" s="82"/>
       <c r="K69" s="79"/>
       <c r="L69" s="79"/>
       <c r="M69" s="136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5633,13 +5645,13 @@
         <v>198</v>
       </c>
       <c r="I70" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J70" s="88"/>
       <c r="K70" s="79"/>
       <c r="L70" s="79"/>
       <c r="M70" s="136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5659,13 +5671,13 @@
         <v>199</v>
       </c>
       <c r="I71" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J71" s="88"/>
       <c r="K71" s="79"/>
       <c r="L71" s="79"/>
       <c r="M71" s="136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5685,13 +5697,13 @@
         <v>200</v>
       </c>
       <c r="I72" s="119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J72" s="123"/>
       <c r="K72" s="120"/>
       <c r="L72" s="120"/>
       <c r="M72" s="137" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5711,13 +5723,13 @@
         <v>201</v>
       </c>
       <c r="I73" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J73" s="82"/>
       <c r="K73" s="79"/>
       <c r="L73" s="79"/>
       <c r="M73" s="136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5737,13 +5749,13 @@
         <v>202</v>
       </c>
       <c r="I74" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J74" s="82"/>
       <c r="K74" s="79"/>
       <c r="L74" s="79"/>
       <c r="M74" s="136" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5763,13 +5775,13 @@
         <v>203</v>
       </c>
       <c r="I75" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J75" s="82"/>
       <c r="K75" s="79"/>
       <c r="L75" s="79"/>
       <c r="M75" s="136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5789,13 +5801,13 @@
         <v>204</v>
       </c>
       <c r="I76" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J76" s="82"/>
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
       <c r="M76" s="136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5815,13 +5827,13 @@
         <v>196</v>
       </c>
       <c r="I77" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J77" s="82"/>
       <c r="K77" s="79"/>
       <c r="L77" s="79"/>
-      <c r="M77" s="79" t="s">
-        <v>296</v>
+      <c r="M77" s="136" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5841,13 +5853,13 @@
         <v>206</v>
       </c>
       <c r="I78" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J78" s="82"/>
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
-      <c r="M78" s="79" t="s">
-        <v>296</v>
+      <c r="M78" s="136" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5867,13 +5879,13 @@
         <v>207</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
       <c r="M79" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5893,13 +5905,13 @@
         <v>208</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1">
@@ -5919,13 +5931,13 @@
         <v>209</v>
       </c>
       <c r="I81" s="119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J81" s="123"/>
       <c r="K81" s="120"/>
       <c r="L81" s="120"/>
       <c r="M81" s="137" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1">
@@ -5945,13 +5957,13 @@
         <v>213</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
       <c r="M82" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1">
@@ -5963,7 +5975,7 @@
         <v>183</v>
       </c>
       <c r="D83" s="80" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
@@ -5972,13 +5984,13 @@
         <v>178</v>
       </c>
       <c r="I83" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J83" s="82"/>
       <c r="K83" s="79"/>
       <c r="L83" s="79"/>
-      <c r="M83" s="79" t="s">
-        <v>296</v>
+      <c r="M83" s="136" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1">
@@ -5990,22 +6002,22 @@
         <v>183</v>
       </c>
       <c r="D84" s="80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E84" s="80"/>
       <c r="F84" s="80"/>
       <c r="G84" s="80"/>
       <c r="H84" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I84" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J84" s="82"/>
       <c r="K84" s="79"/>
       <c r="L84" s="79"/>
       <c r="M84" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1">
@@ -6017,22 +6029,22 @@
         <v>183</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E85" s="80"/>
       <c r="F85" s="80"/>
       <c r="G85" s="80"/>
       <c r="H85" s="114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I85" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J85" s="82"/>
       <c r="K85" s="79"/>
       <c r="L85" s="79"/>
       <c r="M85" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1">
@@ -6044,22 +6056,22 @@
         <v>183</v>
       </c>
       <c r="D86" s="80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" s="80"/>
       <c r="F86" s="80"/>
       <c r="G86" s="80"/>
       <c r="H86" s="114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I86" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J86" s="82"/>
       <c r="K86" s="79"/>
       <c r="L86" s="79"/>
       <c r="M86" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
@@ -6071,22 +6083,22 @@
         <v>183</v>
       </c>
       <c r="D87" s="80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E87" s="80"/>
       <c r="F87" s="80"/>
       <c r="G87" s="80"/>
       <c r="H87" s="114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I87" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J87" s="82"/>
       <c r="K87" s="79"/>
       <c r="L87" s="79"/>
       <c r="M87" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1">
@@ -6097,22 +6109,22 @@
         <v>183</v>
       </c>
       <c r="D88" s="80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E88" s="80"/>
       <c r="F88" s="80"/>
       <c r="G88" s="80"/>
       <c r="H88" s="114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I88" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J88" s="82"/>
       <c r="K88" s="79"/>
       <c r="L88" s="79"/>
       <c r="M88" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1">
@@ -6124,22 +6136,22 @@
         <v>183</v>
       </c>
       <c r="D89" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E89" s="122"/>
       <c r="F89" s="122"/>
       <c r="G89" s="122"/>
       <c r="H89" s="131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I89" s="119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J89" s="123"/>
       <c r="K89" s="120"/>
       <c r="L89" s="120"/>
       <c r="M89" s="137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1">
@@ -6151,22 +6163,22 @@
         <v>183</v>
       </c>
       <c r="D90" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E90" s="122"/>
       <c r="F90" s="122"/>
       <c r="G90" s="122"/>
       <c r="H90" s="131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I90" s="119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J90" s="123"/>
       <c r="K90" s="120"/>
       <c r="L90" s="120"/>
       <c r="M90" s="137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6174,18 +6186,18 @@
         <v>84</v>
       </c>
       <c r="C91" s="133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="122" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E91" s="122" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F91" s="122"/>
       <c r="G91" s="122"/>
       <c r="H91" s="118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I91" s="119" t="s">
         <v>210</v>
@@ -6194,7 +6206,7 @@
       <c r="K91" s="120"/>
       <c r="L91" s="120"/>
       <c r="M91" s="137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6202,16 +6214,16 @@
         <v>85</v>
       </c>
       <c r="C92" s="133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D92" s="122"/>
       <c r="E92" s="122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F92" s="122"/>
       <c r="G92" s="122"/>
       <c r="H92" s="131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I92" s="119" t="s">
         <v>210</v>
@@ -6220,7 +6232,7 @@
       <c r="K92" s="120"/>
       <c r="L92" s="120"/>
       <c r="M92" s="137" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6228,16 +6240,16 @@
         <v>86</v>
       </c>
       <c r="C93" s="134" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="126" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>210</v>
@@ -6246,7 +6258,7 @@
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
       <c r="M93" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1">
@@ -6254,25 +6266,25 @@
         <v>87</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="126" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
       <c r="M94" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1">
@@ -6280,25 +6292,25 @@
         <v>88</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="126" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
       <c r="M95" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1">
@@ -6306,25 +6318,25 @@
         <v>89</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>210</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
       <c r="M96" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="15" customHeight="1">
@@ -6332,14 +6344,14 @@
         <v>90</v>
       </c>
       <c r="C97" s="116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D97" s="122"/>
       <c r="E97" s="122"/>
       <c r="F97" s="122"/>
       <c r="G97" s="122"/>
       <c r="H97" s="131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I97" s="119" t="s">
         <v>210</v>
@@ -6348,7 +6360,7 @@
       <c r="K97" s="120"/>
       <c r="L97" s="120"/>
       <c r="M97" s="137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="15" customHeight="1">
@@ -6356,14 +6368,14 @@
         <v>91</v>
       </c>
       <c r="C98" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D98" s="122"/>
       <c r="E98" s="122"/>
       <c r="F98" s="122"/>
       <c r="G98" s="122"/>
       <c r="H98" s="131" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I98" s="119" t="s">
         <v>210</v>
@@ -6372,7 +6384,7 @@
       <c r="K98" s="120"/>
       <c r="L98" s="120"/>
       <c r="M98" s="137" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="15" customHeight="1">
@@ -6380,14 +6392,14 @@
         <v>92</v>
       </c>
       <c r="C99" s="116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D99" s="122"/>
       <c r="E99" s="122"/>
       <c r="F99" s="122"/>
       <c r="G99" s="122"/>
       <c r="H99" s="131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I99" s="119" t="s">
         <v>210</v>
@@ -6396,7 +6408,7 @@
       <c r="K99" s="120"/>
       <c r="L99" s="120"/>
       <c r="M99" s="137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="15" customHeight="1">
@@ -6404,14 +6416,14 @@
         <v>93</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I100" s="13" t="s">
         <v>210</v>
@@ -6420,7 +6432,7 @@
       <c r="K100" s="24"/>
       <c r="L100" s="24"/>
       <c r="M100" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="16.149999999999999" customHeight="1">
@@ -6428,14 +6440,14 @@
         <v>94</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I101" s="13" t="s">
         <v>210</v>
@@ -6444,7 +6456,7 @@
       <c r="K101" s="24"/>
       <c r="L101" s="24"/>
       <c r="M101" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="16.899999999999999" customHeight="1">
@@ -6452,7 +6464,7 @@
         <v>95</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -6469,12 +6481,12 @@
     </row>
     <row r="103" spans="2:13" ht="45">
       <c r="C103" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="2:13" ht="78.75">
       <c r="C105" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -6665,9 +6677,12 @@
     <hyperlink ref="M70" r:id="rId100"/>
     <hyperlink ref="M75" r:id="rId101"/>
     <hyperlink ref="M76" r:id="rId102"/>
+    <hyperlink ref="M77" r:id="rId103"/>
+    <hyperlink ref="M78" r:id="rId104"/>
+    <hyperlink ref="M83" r:id="rId105"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
 </worksheet>
 </file>
 
@@ -6727,7 +6742,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="143" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D5" s="146" t="s">
         <v>3</v>
@@ -6742,7 +6757,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="152" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I5" s="155" t="s">
         <v>5</v>
@@ -6773,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>6</v>
@@ -6784,7 +6799,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I8" s="24"/>
     </row>
@@ -6793,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>22</v>
@@ -6804,7 +6819,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I9" s="24"/>
     </row>
@@ -6813,7 +6828,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>30</v>
@@ -6824,7 +6839,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>31</v>
@@ -6835,7 +6850,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>23</v>
@@ -6846,7 +6861,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I11" s="24"/>
     </row>
@@ -6855,7 +6870,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>24</v>
@@ -6866,7 +6881,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I12" s="24"/>
     </row>
@@ -6875,7 +6890,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>25</v>
@@ -6886,7 +6901,7 @@
         <v>47</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I13" s="24"/>
     </row>
@@ -6895,7 +6910,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>26</v>
@@ -6906,7 +6921,7 @@
         <v>48</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I14" s="24"/>
     </row>
@@ -6915,7 +6930,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>27</v>
@@ -6935,7 +6950,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>29</v>
@@ -6946,7 +6961,7 @@
         <v>46</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>31</v>
@@ -6963,7 +6978,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="5" t="s">
@@ -6990,7 +7005,7 @@
       <c r="F18" s="26"/>
       <c r="G18" s="17"/>
       <c r="H18" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I18" s="24"/>
     </row>
@@ -7008,7 +7023,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="17"/>
       <c r="H19" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I19" s="24"/>
     </row>
@@ -7026,7 +7041,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="17"/>
       <c r="H20" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I20" s="24"/>
     </row>
@@ -7044,7 +7059,7 @@
       <c r="F21" s="26"/>
       <c r="G21" s="17"/>
       <c r="H21" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I21" s="24"/>
     </row>
@@ -7064,7 +7079,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="5"/>
       <c r="H22" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I22" s="24"/>
     </row>
@@ -7082,7 +7097,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="5"/>
       <c r="H23" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I23" s="24"/>
     </row>
@@ -7162,7 +7177,7 @@
         <v>34</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I27" s="24"/>
     </row>
@@ -7191,7 +7206,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>23</v>
@@ -7200,7 +7215,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="15"/>
       <c r="H29" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I29" s="24"/>
     </row>
@@ -7209,7 +7224,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="24" t="s">
@@ -7229,7 +7244,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="28" t="s">
@@ -7249,7 +7264,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>64</v>
@@ -7265,7 +7280,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="28" t="s">
@@ -7285,7 +7300,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="28" t="s">
@@ -7305,7 +7320,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>56</v>
@@ -7321,7 +7336,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="24" t="s">
@@ -7332,7 +7347,7 @@
         <v>85</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I36" s="24"/>
     </row>
@@ -7341,7 +7356,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" s="30"/>
       <c r="E37" s="28" t="s">
@@ -7352,7 +7367,7 @@
         <v>86</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I37" s="18"/>
     </row>
@@ -7361,7 +7376,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D38" s="30"/>
       <c r="E38" s="28" t="s">
@@ -7372,7 +7387,7 @@
         <v>88</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I38" s="18"/>
     </row>
@@ -7381,7 +7396,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>60</v>
@@ -7397,7 +7412,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="24" t="s">
@@ -7408,7 +7423,7 @@
         <v>87</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I40" s="24"/>
     </row>
@@ -7417,7 +7432,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="24" t="s">
@@ -7428,7 +7443,7 @@
         <v>89</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I41" s="24"/>
     </row>
@@ -7437,7 +7452,7 @@
         <v>45</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="24" t="s">
@@ -7448,7 +7463,7 @@
         <v>90</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I42" s="16"/>
     </row>
@@ -7457,7 +7472,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>67</v>
@@ -7473,7 +7488,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="24" t="s">
@@ -7484,7 +7499,7 @@
         <v>91</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I44" s="24"/>
     </row>
@@ -7493,7 +7508,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="32" t="s">
@@ -7504,7 +7519,7 @@
         <v>51</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I45" s="24"/>
     </row>
@@ -7513,7 +7528,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="31" t="s">
@@ -7524,7 +7539,7 @@
         <v>53</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I46" s="24"/>
     </row>
@@ -7533,7 +7548,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31" t="s">
@@ -7544,7 +7559,7 @@
         <v>92</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I47" s="24"/>
     </row>
@@ -7553,7 +7568,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
@@ -7573,7 +7588,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="33" t="s">
@@ -7593,7 +7608,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
@@ -7604,7 +7619,7 @@
         <v>95</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I50" s="24"/>
     </row>
@@ -7613,7 +7628,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="33" t="s">
@@ -7624,7 +7639,7 @@
         <v>96</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I51" s="24"/>
     </row>
@@ -7633,7 +7648,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D52" s="33" t="s">
         <v>77</v>
@@ -7649,7 +7664,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="33" t="s">
@@ -7658,7 +7673,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="8"/>
       <c r="H53" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I53" s="24"/>
     </row>
@@ -7667,7 +7682,7 @@
         <v>57</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="33" t="s">
@@ -7678,7 +7693,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I54" s="24"/>
     </row>
@@ -7687,7 +7702,7 @@
         <v>58</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="33" t="s">
@@ -7698,7 +7713,7 @@
         <v>97</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I55" s="24"/>
     </row>
@@ -7707,7 +7722,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
@@ -7718,7 +7733,7 @@
         <v>19</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I56" s="24"/>
     </row>
@@ -7727,7 +7742,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="33" t="s">
@@ -7738,7 +7753,7 @@
         <v>20</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I57" s="24"/>
     </row>

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="330">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1340,13 +1340,17 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fsustainability.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fpro.html</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -3451,7 +3455,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3504,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3544,7 +3548,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3588,7 +3592,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,7 +3911,7 @@
   <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6016,8 +6020,8 @@
       <c r="J84" s="82"/>
       <c r="K84" s="79"/>
       <c r="L84" s="79"/>
-      <c r="M84" s="79" t="s">
-        <v>295</v>
+      <c r="M84" s="136" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1">
@@ -6680,9 +6684,10 @@
     <hyperlink ref="M77" r:id="rId103"/>
     <hyperlink ref="M78" r:id="rId104"/>
     <hyperlink ref="M83" r:id="rId105"/>
+    <hyperlink ref="M84" r:id="rId106"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId106"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
 </worksheet>
 </file>
 

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="331">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1344,13 +1344,17 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fpro.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2FgiftCard.html</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -3455,7 +3459,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3508,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,7 +3552,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3592,7 +3596,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,7 +3915,7 @@
   <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6047,8 +6051,8 @@
       <c r="J85" s="82"/>
       <c r="K85" s="79"/>
       <c r="L85" s="79"/>
-      <c r="M85" s="79" t="s">
-        <v>295</v>
+      <c r="M85" s="136" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1">
@@ -6685,9 +6689,10 @@
     <hyperlink ref="M78" r:id="rId104"/>
     <hyperlink ref="M83" r:id="rId105"/>
     <hyperlink ref="M84" r:id="rId106"/>
+    <hyperlink ref="M85" r:id="rId107"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId107"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId108"/>
 </worksheet>
 </file>
 

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="333">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1348,13 +1348,21 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2FgiftCard.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fcareers.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fnewsroom.html</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -3459,7 +3467,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3516,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3560,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3604,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3915,7 +3923,7 @@
   <dimension ref="A1:AL105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6078,8 +6086,8 @@
       <c r="J86" s="82"/>
       <c r="K86" s="79"/>
       <c r="L86" s="79"/>
-      <c r="M86" s="79" t="s">
-        <v>295</v>
+      <c r="M86" s="136" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
@@ -6105,8 +6113,8 @@
       <c r="J87" s="82"/>
       <c r="K87" s="79"/>
       <c r="L87" s="79"/>
-      <c r="M87" s="79" t="s">
-        <v>295</v>
+      <c r="M87" s="136" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1">
@@ -6690,9 +6698,11 @@
     <hyperlink ref="M83" r:id="rId105"/>
     <hyperlink ref="M84" r:id="rId106"/>
     <hyperlink ref="M85" r:id="rId107"/>
+    <hyperlink ref="M86" r:id="rId108"/>
+    <hyperlink ref="M87" r:id="rId109"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId108"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>
 </worksheet>
 </file>
 

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -1207,10 +1207,6 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>신규생성 컨텐츠 전체수정</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>신규 사이트계정 : jsh1168 / 1168014a</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -1356,6 +1352,10 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fnewsroom.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fcookies.html</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
@@ -3922,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -5563,7 +5563,7 @@
       <c r="K66" s="79"/>
       <c r="L66" s="79"/>
       <c r="M66" s="136" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5641,7 +5641,7 @@
       <c r="K69" s="79"/>
       <c r="L69" s="79"/>
       <c r="M69" s="136" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5667,7 +5667,7 @@
       <c r="K70" s="79"/>
       <c r="L70" s="79"/>
       <c r="M70" s="136" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5693,7 +5693,7 @@
       <c r="K71" s="79"/>
       <c r="L71" s="79"/>
       <c r="M71" s="136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5719,7 +5719,7 @@
       <c r="K72" s="120"/>
       <c r="L72" s="120"/>
       <c r="M72" s="137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5745,7 +5745,7 @@
       <c r="K73" s="79"/>
       <c r="L73" s="79"/>
       <c r="M73" s="136" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5771,7 +5771,7 @@
       <c r="K74" s="79"/>
       <c r="L74" s="79"/>
       <c r="M74" s="136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5797,7 +5797,7 @@
       <c r="K75" s="79"/>
       <c r="L75" s="79"/>
       <c r="M75" s="136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5823,7 +5823,7 @@
       <c r="K76" s="79"/>
       <c r="L76" s="79"/>
       <c r="M76" s="136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5849,7 +5849,7 @@
       <c r="K77" s="79"/>
       <c r="L77" s="79"/>
       <c r="M77" s="136" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5875,7 +5875,7 @@
       <c r="K78" s="79"/>
       <c r="L78" s="79"/>
       <c r="M78" s="136" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5901,7 +5901,7 @@
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
       <c r="M79" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5927,7 +5927,7 @@
       <c r="K80" s="24"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1">
@@ -5953,7 +5953,7 @@
       <c r="K81" s="120"/>
       <c r="L81" s="120"/>
       <c r="M81" s="137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1">
@@ -5979,7 +5979,7 @@
       <c r="K82" s="24"/>
       <c r="L82" s="24"/>
       <c r="M82" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1">
@@ -5991,7 +5991,7 @@
         <v>183</v>
       </c>
       <c r="D83" s="80" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E83" s="80"/>
       <c r="F83" s="80"/>
@@ -6006,7 +6006,7 @@
       <c r="K83" s="79"/>
       <c r="L83" s="79"/>
       <c r="M83" s="136" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1">
@@ -6033,7 +6033,7 @@
       <c r="K84" s="79"/>
       <c r="L84" s="79"/>
       <c r="M84" s="136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1">
@@ -6060,7 +6060,7 @@
       <c r="K85" s="79"/>
       <c r="L85" s="79"/>
       <c r="M85" s="136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1">
@@ -6087,7 +6087,7 @@
       <c r="K86" s="79"/>
       <c r="L86" s="79"/>
       <c r="M86" s="136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1">
@@ -6114,7 +6114,7 @@
       <c r="K87" s="79"/>
       <c r="L87" s="79"/>
       <c r="M87" s="136" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1">
@@ -6139,8 +6139,8 @@
       <c r="J88" s="82"/>
       <c r="K88" s="79"/>
       <c r="L88" s="79"/>
-      <c r="M88" s="79" t="s">
-        <v>295</v>
+      <c r="M88" s="136" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1">
@@ -6167,7 +6167,7 @@
       <c r="K89" s="120"/>
       <c r="L89" s="120"/>
       <c r="M89" s="137" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1">
@@ -6194,7 +6194,7 @@
       <c r="K90" s="120"/>
       <c r="L90" s="120"/>
       <c r="M90" s="137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6222,7 +6222,7 @@
       <c r="K91" s="120"/>
       <c r="L91" s="120"/>
       <c r="M91" s="137" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6248,7 +6248,7 @@
       <c r="K92" s="120"/>
       <c r="L92" s="120"/>
       <c r="M92" s="137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16.899999999999999" customHeight="1">
@@ -6265,7 +6265,7 @@
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="126" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>210</v>
@@ -6274,7 +6274,7 @@
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
       <c r="M93" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1">
@@ -6300,7 +6300,7 @@
       <c r="K94" s="24"/>
       <c r="L94" s="24"/>
       <c r="M94" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1">
@@ -6315,7 +6315,7 @@
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="126" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>250</v>
@@ -6326,7 +6326,7 @@
       <c r="K95" s="24"/>
       <c r="L95" s="24"/>
       <c r="M95" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1">
@@ -6341,7 +6341,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>210</v>
@@ -6352,7 +6352,7 @@
       <c r="K96" s="24"/>
       <c r="L96" s="24"/>
       <c r="M96" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="15" customHeight="1">
@@ -6367,7 +6367,7 @@
       <c r="F97" s="122"/>
       <c r="G97" s="122"/>
       <c r="H97" s="131" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I97" s="119" t="s">
         <v>210</v>
@@ -6376,7 +6376,7 @@
       <c r="K97" s="120"/>
       <c r="L97" s="120"/>
       <c r="M97" s="137" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="15" customHeight="1">
@@ -6391,7 +6391,7 @@
       <c r="F98" s="122"/>
       <c r="G98" s="122"/>
       <c r="H98" s="131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I98" s="119" t="s">
         <v>210</v>
@@ -6400,7 +6400,7 @@
       <c r="K98" s="120"/>
       <c r="L98" s="120"/>
       <c r="M98" s="137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="15" customHeight="1">
@@ -6415,7 +6415,7 @@
       <c r="F99" s="122"/>
       <c r="G99" s="122"/>
       <c r="H99" s="131" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I99" s="119" t="s">
         <v>210</v>
@@ -6424,7 +6424,7 @@
       <c r="K99" s="120"/>
       <c r="L99" s="120"/>
       <c r="M99" s="137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="15" customHeight="1">
@@ -6448,7 +6448,7 @@
       <c r="K100" s="24"/>
       <c r="L100" s="24"/>
       <c r="M100" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="16.149999999999999" customHeight="1">
@@ -6463,7 +6463,7 @@
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I101" s="13" t="s">
         <v>210</v>
@@ -6472,7 +6472,7 @@
       <c r="K101" s="24"/>
       <c r="L101" s="24"/>
       <c r="M101" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="16.899999999999999" customHeight="1">
@@ -6497,12 +6497,12 @@
     </row>
     <row r="103" spans="2:13" ht="45">
       <c r="C103" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="2:13" ht="78.75">
       <c r="C105" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -6700,9 +6700,10 @@
     <hyperlink ref="M85" r:id="rId107"/>
     <hyperlink ref="M86" r:id="rId108"/>
     <hyperlink ref="M87" r:id="rId109"/>
+    <hyperlink ref="M88" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId110"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
 </worksheet>
 </file>
 

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="마이페이지" sheetId="44" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'페이지명세서(.com)'!$A$8:$AL$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'페이지명세서(.com)'!$A$8:$AL$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'페이지명세서(co.kr)'!$A$7:$G$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="335">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1356,13 +1356,21 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fcookies.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>whoweare</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fwhoweare.html</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -2330,7 +2338,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2816,6 +2824,21 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2873,7 +2896,87 @@
     <cellStyle name="표준_샤인빌_프로젝트일정_ver0.8_060308" xfId="51"/>
     <cellStyle name="하이퍼링크" xfId="52" builtinId="8"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3467,7 +3570,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3516,7 +3619,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3663,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3707,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3920,10 +4023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL105"/>
+  <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -6475,7 +6578,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="2:13" ht="16.899999999999999" customHeight="1">
+    <row r="102" spans="2:13" ht="16.149999999999999" customHeight="1">
       <c r="B102" s="12">
         <v>95</v>
       </c>
@@ -6495,13 +6598,45 @@
       <c r="L102" s="24"/>
       <c r="M102" s="24"/>
     </row>
-    <row r="103" spans="2:13" ht="45">
-      <c r="C103" s="11" t="s">
+    <row r="103" spans="2:13" ht="16.899999999999999" customHeight="1">
+      <c r="B103" s="12">
+        <v>96</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="135"/>
+      <c r="I103" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="J103" s="2"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="77" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" ht="16.899999999999999" customHeight="1">
+      <c r="B104" s="162"/>
+      <c r="C104" s="163"/>
+      <c r="D104" s="164"/>
+      <c r="E104" s="164"/>
+      <c r="F104" s="164"/>
+      <c r="G104" s="164"/>
+      <c r="H104" s="165"/>
+      <c r="I104" s="166"/>
+    </row>
+    <row r="105" spans="2:13" ht="45">
+      <c r="C105" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="2:13" ht="78.75">
-      <c r="C105" s="11" t="s">
+    <row r="107" spans="2:13" ht="78.75">
+      <c r="C107" s="11" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6523,72 +6658,80 @@
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="63" priority="29" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="30" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72:H74">
+    <cfRule type="duplicateValues" dxfId="61" priority="27" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="28" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="59" priority="31" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="32" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="57" priority="33" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="34" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H54 H56:H59">
     <cfRule type="duplicateValues" dxfId="55" priority="25" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="54" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72:H74">
+  <conditionalFormatting sqref="H64:H67">
     <cfRule type="duplicateValues" dxfId="53" priority="23" stopIfTrue="1"/>
     <cfRule type="duplicateValues" dxfId="52" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="51" priority="27" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="28" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="49" priority="29" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="30" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H54 H56:H59">
-    <cfRule type="duplicateValues" dxfId="47" priority="21" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="22" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H67">
-    <cfRule type="duplicateValues" dxfId="45" priority="19" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="20" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="43" priority="17" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="21" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="41" priority="15" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="39" priority="13" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="37" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="35" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="33" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="12" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103:H104">
+    <cfRule type="duplicateValues" dxfId="39" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="8" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H103:H104">
+    <cfRule type="duplicateValues" dxfId="37" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="10" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:H77 H1:H8 H108:H65541 H79:H101 H10:H38">
+    <cfRule type="duplicateValues" dxfId="35" priority="338" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="339" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108:H65541 H81:H101">
+    <cfRule type="duplicateValues" dxfId="33" priority="350" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="351" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="duplicateValues" dxfId="31" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="31" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="29" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="6" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H77 H1:H8 H106:H65539 H79:H101 H10:H38">
-    <cfRule type="duplicateValues" dxfId="27" priority="334" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="335" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H106:H65539 H81:H101">
-    <cfRule type="duplicateValues" dxfId="25" priority="346" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="347" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="23" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="2" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1"/>
@@ -6701,9 +6844,10 @@
     <hyperlink ref="M86" r:id="rId108"/>
     <hyperlink ref="M87" r:id="rId109"/>
     <hyperlink ref="M88" r:id="rId110"/>
+    <hyperlink ref="M103" r:id="rId111"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId111"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId112"/>
 </worksheet>
 </file>
 
@@ -7793,48 +7937,48 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G30">
-    <cfRule type="duplicateValues" dxfId="21" priority="25" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="26" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="25" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:G41">
-    <cfRule type="duplicateValues" dxfId="19" priority="15" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="duplicateValues" dxfId="17" priority="308" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="309" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="308" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="309" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="duplicateValues" dxfId="15" priority="318" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="319" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="318" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="319" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G34">
-    <cfRule type="duplicateValues" dxfId="13" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="11" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="duplicateValues" dxfId="9" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="duplicateValues" dxfId="7" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="duplicateValues" dxfId="5" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G44 G1:G16 G46:G65536">
-    <cfRule type="duplicateValues" dxfId="3" priority="320" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="321" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="320" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="321" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:G65536">
-    <cfRule type="duplicateValues" dxfId="1" priority="330" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="331" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="330" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="331" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G28" r:id="rId1"/>

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="336">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1364,13 +1364,17 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/page/index?tpl=etc%2Fwhoweare.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/page/index?tpl=order%2Fcart_back.html</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -1736,7 +1740,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1971,6 +1975,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -2338,7 +2348,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2753,6 +2763,21 @@
     <xf numFmtId="0" fontId="5" fillId="39" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2825,19 +2850,7 @@
     <xf numFmtId="0" fontId="34" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2896,67 +2909,7 @@
     <cellStyle name="표준_샤인빌_프로젝트일정_ver0.8_060308" xfId="51"/>
     <cellStyle name="하이퍼링크" xfId="52" builtinId="8"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="58">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3570,7 +3523,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3572,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3663,7 +3616,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3707,7 +3660,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -4050,23 +4003,23 @@
   <sheetData>
     <row r="1" spans="2:13" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:13" ht="16.149999999999999" customHeight="1">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
       <c r="G2" s="40"/>
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1">
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
       <c r="G3" s="40"/>
       <c r="H3" s="41"/>
       <c r="I3" s="42"/>
@@ -4078,70 +4031,70 @@
       <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="148" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="149" t="s">
+      <c r="H5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="157" t="s">
         <v>254</v>
       </c>
-      <c r="J5" s="155" t="s">
+      <c r="J5" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="138" t="s">
+      <c r="K5" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="L5" s="138" t="s">
+      <c r="L5" s="143" t="s">
         <v>274</v>
       </c>
-      <c r="M5" s="138" t="s">
+      <c r="M5" s="143" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B6" s="141"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B7" s="142"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
     </row>
     <row r="8" spans="2:13" s="19" customFormat="1" ht="14.45" customHeight="1">
       <c r="B8" s="45">
@@ -6534,7 +6487,7 @@
       <c r="B100" s="12">
         <v>93</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="167" t="s">
         <v>236</v>
       </c>
       <c r="D100" s="16"/>
@@ -6550,8 +6503,8 @@
       <c r="J100" s="2"/>
       <c r="K100" s="24"/>
       <c r="L100" s="24"/>
-      <c r="M100" s="24" t="s">
-        <v>301</v>
+      <c r="M100" s="77" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="16.149999999999999" customHeight="1">
@@ -6602,7 +6555,7 @@
       <c r="B103" s="12">
         <v>96</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="167" t="s">
         <v>333</v>
       </c>
       <c r="D103" s="16"/>
@@ -6621,14 +6574,14 @@
       </c>
     </row>
     <row r="104" spans="2:13" ht="16.899999999999999" customHeight="1">
-      <c r="B104" s="162"/>
-      <c r="C104" s="163"/>
-      <c r="D104" s="164"/>
-      <c r="E104" s="164"/>
-      <c r="F104" s="164"/>
-      <c r="G104" s="164"/>
-      <c r="H104" s="165"/>
-      <c r="I104" s="166"/>
+      <c r="B104" s="138"/>
+      <c r="C104" s="139"/>
+      <c r="D104" s="140"/>
+      <c r="E104" s="140"/>
+      <c r="F104" s="140"/>
+      <c r="G104" s="140"/>
+      <c r="H104" s="141"/>
+      <c r="I104" s="142"/>
     </row>
     <row r="105" spans="2:13" ht="45">
       <c r="C105" s="11" t="s">
@@ -6658,80 +6611,76 @@
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="63" priority="29" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="30" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="29" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="30" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:H74">
-    <cfRule type="duplicateValues" dxfId="61" priority="27" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="28" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="27" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="28" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="59" priority="31" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="32" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="31" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="32" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="57" priority="33" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="34" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="33" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="34" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52:H54 H56:H59">
-    <cfRule type="duplicateValues" dxfId="55" priority="25" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="26" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="25" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:H67">
-    <cfRule type="duplicateValues" dxfId="53" priority="23" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="24" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="23" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="51" priority="21" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="22" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="21" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="49" priority="19" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="20" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="47" priority="17" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="45" priority="15" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="43" priority="13" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="14" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="41" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H104">
-    <cfRule type="duplicateValues" dxfId="39" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H104">
-    <cfRule type="duplicateValues" dxfId="37" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75:H77 H1:H8 H108:H65541 H79:H101 H10:H38">
-    <cfRule type="duplicateValues" dxfId="35" priority="338" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="339" stopIfTrue="1"/>
+  <conditionalFormatting sqref="H108:H65541 H75:H77 H1:H8 H79:H101 H10:H38">
+    <cfRule type="duplicateValues" dxfId="29" priority="338" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="339" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108:H65541 H81:H101">
-    <cfRule type="duplicateValues" dxfId="33" priority="350" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="351" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="350" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="351" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="31" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="7" priority="1" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="362" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="363" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1"/>
@@ -6845,9 +6794,10 @@
     <hyperlink ref="M87" r:id="rId109"/>
     <hyperlink ref="M88" r:id="rId110"/>
     <hyperlink ref="M103" r:id="rId111"/>
+    <hyperlink ref="M100" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId112"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId113"/>
 </worksheet>
 </file>
 
@@ -6877,22 +6827,22 @@
   <sheetData>
     <row r="1" spans="2:9" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:9" ht="16.149999999999999" customHeight="1">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
       <c r="G2" s="3"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
       <c r="G3" s="3"/>
       <c r="H3" s="35"/>
     </row>
@@ -6903,50 +6853,50 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="148" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="146" t="s">
+      <c r="F5" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="157" t="s">
         <v>255</v>
       </c>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="160" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B6" s="141"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="156"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="161"/>
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B7" s="142"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="157"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="162"/>
     </row>
     <row r="8" spans="2:9" s="19" customFormat="1" ht="10.5" customHeight="1">
       <c r="B8" s="12">
@@ -7937,48 +7887,48 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G30">
-    <cfRule type="duplicateValues" dxfId="29" priority="25" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="26" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:G41">
-    <cfRule type="duplicateValues" dxfId="27" priority="15" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="duplicateValues" dxfId="25" priority="308" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="309" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="308" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="309" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="duplicateValues" dxfId="23" priority="318" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="319" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="318" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="319" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G34">
-    <cfRule type="duplicateValues" dxfId="21" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="19" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="duplicateValues" dxfId="17" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="duplicateValues" dxfId="15" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="duplicateValues" dxfId="13" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G44 G1:G16 G46:G65536">
-    <cfRule type="duplicateValues" dxfId="11" priority="320" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="321" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="320" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="321" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:G65536">
-    <cfRule type="duplicateValues" dxfId="9" priority="330" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="331" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="330" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="331" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G28" r:id="rId1"/>

--- a/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
+++ b/arcteryx/아크테릭스공홈리뉴얼_페이지 명세서_20190904.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns-git\arcteryx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuns\kuns-git\arcteryx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="337">
   <si>
     <t>2 Depth</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1231,10 +1231,6 @@
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
   <si>
-    <t>대기</t>
-    <phoneticPr fontId="33" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.arcteryx.com/ca/en/shop/mens/alpha-is-jacket</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
@@ -1368,13 +1364,21 @@
   </si>
   <si>
     <t>http://arcteryx.firstmall.kr/page/index?tpl=order%2Fcart_back.html</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/goods/search</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arcteryx.firstmall.kr/order/settle?mode=cart</t>
     <phoneticPr fontId="33" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="50">
     <font>
       <sz val="11"/>
@@ -2348,7 +2352,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2580,9 +2584,6 @@
     <xf numFmtId="0" fontId="40" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2778,6 +2779,9 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2850,8 +2854,26 @@
     <xf numFmtId="0" fontId="34" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="1" xfId="52" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3523,7 +3545,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3572,7 +3594,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,7 +3638,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3660,7 +3682,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3978,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -4118,7 +4140,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
-      <c r="M8" s="115" t="s">
+      <c r="M8" s="114" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4218,7 +4240,7 @@
       <c r="J12" s="59"/>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
-      <c r="M12" s="115" t="s">
+      <c r="M12" s="114" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4244,7 +4266,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="55"/>
       <c r="L13" s="55"/>
-      <c r="M13" s="115" t="s">
+      <c r="M13" s="114" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5332,25 +5354,25 @@
       <c r="B56" s="12">
         <v>49</v>
       </c>
-      <c r="C56" s="89" t="s">
+      <c r="C56" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="90" t="s">
+      <c r="D56" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="E56" s="91"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="93" t="s">
+      <c r="E56" s="90"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="I56" s="94" t="s">
+      <c r="I56" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J56" s="37"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91" t="s">
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5358,27 +5380,27 @@
       <c r="B57" s="14">
         <v>50</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="90"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="95" t="s">
+      <c r="D57" s="89"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="96" t="s">
+      <c r="G57" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="H57" s="93" t="s">
+      <c r="H57" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="I57" s="94" t="s">
+      <c r="I57" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J57" s="37"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91" t="s">
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5386,27 +5408,27 @@
       <c r="B58" s="12">
         <v>51</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="95" t="s">
+      <c r="D58" s="89"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="96" t="s">
+      <c r="G58" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="H58" s="93" t="s">
+      <c r="H58" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="I58" s="94" t="s">
+      <c r="I58" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J58" s="37"/>
-      <c r="K58" s="91"/>
-      <c r="L58" s="91"/>
-      <c r="M58" s="91" t="s">
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5414,27 +5436,27 @@
       <c r="B59" s="12">
         <v>52</v>
       </c>
-      <c r="C59" s="89" t="s">
+      <c r="C59" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="90"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="95" t="s">
+      <c r="D59" s="89"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="96" t="s">
+      <c r="G59" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="H59" s="93" t="s">
+      <c r="H59" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="I59" s="94" t="s">
+      <c r="I59" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J59" s="37"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="91"/>
-      <c r="M59" s="91" t="s">
+      <c r="K59" s="96"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5442,25 +5464,25 @@
       <c r="B60" s="14">
         <v>53</v>
       </c>
-      <c r="C60" s="89" t="s">
+      <c r="C60" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="98"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="92" t="s">
+      <c r="D60" s="97"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="92"/>
-      <c r="H60" s="99" t="s">
+      <c r="G60" s="91"/>
+      <c r="H60" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="I60" s="94" t="s">
+      <c r="I60" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J60" s="37"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
-      <c r="M60" s="91" t="s">
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5468,25 +5490,25 @@
       <c r="B61" s="12">
         <v>54</v>
       </c>
-      <c r="C61" s="89" t="s">
+      <c r="C61" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="98"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="92" t="s">
+      <c r="D61" s="97"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="G61" s="92"/>
-      <c r="H61" s="99" t="s">
+      <c r="G61" s="91"/>
+      <c r="H61" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="I61" s="94" t="s">
+      <c r="I61" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J61" s="37"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="91"/>
-      <c r="M61" s="91" t="s">
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5494,25 +5516,25 @@
       <c r="B62" s="76">
         <v>55</v>
       </c>
-      <c r="C62" s="101" t="s">
+      <c r="C62" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="103" t="s">
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="G62" s="104"/>
-      <c r="H62" s="105" t="s">
+      <c r="G62" s="103"/>
+      <c r="H62" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="I62" s="106" t="s">
+      <c r="I62" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="J62" s="107"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="91"/>
-      <c r="M62" s="91" t="s">
+      <c r="J62" s="106"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5520,25 +5542,25 @@
       <c r="B63" s="14">
         <v>56</v>
       </c>
-      <c r="C63" s="89" t="s">
+      <c r="C63" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="90"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="109" t="s">
+      <c r="D63" s="89"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="110"/>
-      <c r="H63" s="99" t="s">
+      <c r="G63" s="109"/>
+      <c r="H63" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="I63" s="94" t="s">
+      <c r="I63" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J63" s="37"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="91" t="s">
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5546,25 +5568,25 @@
       <c r="B64" s="12">
         <v>57</v>
       </c>
-      <c r="C64" s="89" t="s">
+      <c r="C64" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="111"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109" t="s">
+      <c r="D64" s="110"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="G64" s="110"/>
-      <c r="H64" s="99" t="s">
+      <c r="G64" s="109"/>
+      <c r="H64" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="I64" s="94" t="s">
+      <c r="I64" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J64" s="38"/>
-      <c r="K64" s="91"/>
-      <c r="L64" s="91"/>
-      <c r="M64" s="91" t="s">
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5572,27 +5594,27 @@
       <c r="B65" s="12">
         <v>58</v>
       </c>
-      <c r="C65" s="89" t="s">
+      <c r="C65" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="111"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109" t="s">
+      <c r="D65" s="110"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="110" t="s">
+      <c r="G65" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="H65" s="99" t="s">
+      <c r="H65" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="I65" s="94" t="s">
+      <c r="I65" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J65" s="38"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="91"/>
-      <c r="M65" s="91" t="s">
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5600,26 +5622,26 @@
       <c r="B66" s="14">
         <v>59</v>
       </c>
-      <c r="C66" s="112" t="s">
+      <c r="C66" s="111" t="s">
         <v>183</v>
       </c>
       <c r="D66" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="E66" s="113"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="114" t="s">
+      <c r="E66" s="112"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="I66" s="81" t="s">
+      <c r="I66" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J66" s="88"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="136" t="s">
-        <v>307</v>
+      <c r="J66" s="87"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="135" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5644,7 +5666,7 @@
       <c r="J67" s="65"/>
       <c r="K67" s="55"/>
       <c r="L67" s="55"/>
-      <c r="M67" s="115" t="s">
+      <c r="M67" s="114" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5670,7 +5692,7 @@
       <c r="J68" s="65"/>
       <c r="K68" s="55"/>
       <c r="L68" s="55"/>
-      <c r="M68" s="115" t="s">
+      <c r="M68" s="114" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5678,260 +5700,260 @@
       <c r="B69" s="68">
         <v>62</v>
       </c>
-      <c r="C69" s="112" t="s">
+      <c r="C69" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="78"/>
-      <c r="E69" s="86" t="s">
+      <c r="D69" s="77"/>
+      <c r="E69" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="F69" s="83"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="85" t="s">
+      <c r="F69" s="82"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="I69" s="81" t="s">
+      <c r="I69" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J69" s="82"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="136" t="s">
+      <c r="J69" s="81"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="135" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B70" s="126">
+        <v>63</v>
+      </c>
+      <c r="C70" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="F70" s="85"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="I70" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J70" s="87"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="135" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B71" s="126">
+        <v>64</v>
+      </c>
+      <c r="C71" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="44"/>
+      <c r="E71" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" s="85"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="I71" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J71" s="87"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="135" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="70" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B70" s="127">
-        <v>63</v>
-      </c>
-      <c r="C70" s="112" t="s">
+    <row r="72" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B72" s="128">
+        <v>65</v>
+      </c>
+      <c r="C72" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="F70" s="86"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="I70" s="81" t="s">
+      <c r="D72" s="120"/>
+      <c r="E72" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" s="121"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="J70" s="88"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="136" t="s">
+      <c r="J72" s="122"/>
+      <c r="K72" s="119"/>
+      <c r="L72" s="119"/>
+      <c r="M72" s="136" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B73" s="126">
+        <v>66</v>
+      </c>
+      <c r="C73" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="I73" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J73" s="81"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="135" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B74" s="126">
+        <v>67</v>
+      </c>
+      <c r="C74" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="77"/>
+      <c r="E74" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="I74" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J74" s="81"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="135" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B75" s="127">
+        <v>68</v>
+      </c>
+      <c r="C75" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="77"/>
+      <c r="E75" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="I75" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J75" s="81"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="135" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B71" s="127">
-        <v>64</v>
-      </c>
-      <c r="C71" s="112" t="s">
+    <row r="76" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B76" s="126">
+        <v>69</v>
+      </c>
+      <c r="C76" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="F71" s="86"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="I71" s="81" t="s">
+      <c r="D76" s="77"/>
+      <c r="E76" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="I76" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J71" s="88"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="136" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B72" s="129">
-        <v>65</v>
-      </c>
-      <c r="C72" s="116" t="s">
+      <c r="J76" s="81"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="135" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B77" s="126">
+        <v>70</v>
+      </c>
+      <c r="C77" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="121"/>
-      <c r="E72" s="117" t="s">
-        <v>190</v>
-      </c>
-      <c r="F72" s="122"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="119" t="s">
+      <c r="D77" s="77"/>
+      <c r="E77" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="I77" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J72" s="123"/>
-      <c r="K72" s="120"/>
-      <c r="L72" s="120"/>
-      <c r="M72" s="137" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B73" s="127">
-        <v>66</v>
-      </c>
-      <c r="C73" s="112" t="s">
+      <c r="J77" s="81"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="135" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="B78" s="127">
+        <v>71</v>
+      </c>
+      <c r="C78" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="F73" s="80"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="85" t="s">
-        <v>201</v>
-      </c>
-      <c r="I73" s="81" t="s">
+      <c r="D78" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78" s="123"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="I78" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J73" s="82"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="136" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B74" s="127">
-        <v>67</v>
-      </c>
-      <c r="C74" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="85" t="s">
-        <v>202</v>
-      </c>
-      <c r="I74" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="J74" s="82"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="136" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B75" s="128">
-        <v>68</v>
-      </c>
-      <c r="C75" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="78"/>
-      <c r="E75" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="I75" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="J75" s="82"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="136" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B76" s="127">
-        <v>69</v>
-      </c>
-      <c r="C76" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="I76" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="J76" s="82"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="136" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B77" s="127">
-        <v>70</v>
-      </c>
-      <c r="C77" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="I77" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="J77" s="82"/>
-      <c r="K77" s="79"/>
-      <c r="L77" s="79"/>
-      <c r="M77" s="136" t="s">
+      <c r="J78" s="81"/>
+      <c r="K78" s="78"/>
+      <c r="L78" s="78"/>
+      <c r="M78" s="135" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="128">
-        <v>71</v>
-      </c>
-      <c r="C78" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="D78" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="124"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="85" t="s">
-        <v>206</v>
-      </c>
-      <c r="I78" s="81" t="s">
-        <v>241</v>
-      </c>
-      <c r="J78" s="82"/>
-      <c r="K78" s="79"/>
-      <c r="L78" s="79"/>
-      <c r="M78" s="136" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="79" spans="2:13" s="19" customFormat="1" ht="15" customHeight="1">
@@ -5947,7 +5969,7 @@
       <c r="E79" s="31"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="125" t="s">
+      <c r="H79" s="124" t="s">
         <v>207</v>
       </c>
       <c r="I79" s="13" t="s">
@@ -5973,7 +5995,7 @@
       <c r="E80" s="31"/>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
-      <c r="H80" s="125" t="s">
+      <c r="H80" s="124" t="s">
         <v>208</v>
       </c>
       <c r="I80" s="13" t="s">
@@ -5987,29 +6009,29 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1">
-      <c r="B81" s="129">
+      <c r="B81" s="128">
         <v>74</v>
       </c>
-      <c r="C81" s="116" t="s">
+      <c r="C81" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="120" t="s">
+      <c r="D81" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="E81" s="122"/>
-      <c r="F81" s="122"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="118" t="s">
+      <c r="E81" s="121"/>
+      <c r="F81" s="121"/>
+      <c r="G81" s="121"/>
+      <c r="H81" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="I81" s="119" t="s">
+      <c r="I81" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="J81" s="123"/>
-      <c r="K81" s="120"/>
-      <c r="L81" s="120"/>
-      <c r="M81" s="137" t="s">
-        <v>316</v>
+      <c r="J81" s="122"/>
+      <c r="K81" s="119"/>
+      <c r="L81" s="119"/>
+      <c r="M81" s="136" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1">
@@ -6025,7 +6047,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="125" t="s">
+      <c r="H82" s="124" t="s">
         <v>213</v>
       </c>
       <c r="I82" s="13" t="s">
@@ -6039,279 +6061,279 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1">
-      <c r="A83" s="113"/>
-      <c r="B83" s="127">
+      <c r="A83" s="112"/>
+      <c r="B83" s="126">
         <v>76</v>
       </c>
-      <c r="C83" s="112" t="s">
+      <c r="C83" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="80" t="s">
+      <c r="D83" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="I83" s="80" t="s">
+        <v>241</v>
+      </c>
+      <c r="J83" s="81"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="135" t="s">
         <v>326</v>
       </c>
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="I83" s="81" t="s">
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1">
+      <c r="A84" s="112"/>
+      <c r="B84" s="127">
+        <v>77</v>
+      </c>
+      <c r="C84" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="I84" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J83" s="82"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="136" t="s">
+      <c r="J84" s="81"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="135" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1">
-      <c r="A84" s="113"/>
-      <c r="B84" s="128">
-        <v>77</v>
-      </c>
-      <c r="C84" s="112" t="s">
+    <row r="85" spans="1:13" ht="15" customHeight="1">
+      <c r="A85" s="112"/>
+      <c r="B85" s="126">
+        <v>78</v>
+      </c>
+      <c r="C85" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D84" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="85" t="s">
-        <v>215</v>
-      </c>
-      <c r="I84" s="81" t="s">
+      <c r="D85" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="I85" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J84" s="82"/>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="136" t="s">
+      <c r="J85" s="81"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="135" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1">
-      <c r="A85" s="113"/>
-      <c r="B85" s="127">
-        <v>78</v>
-      </c>
-      <c r="C85" s="112" t="s">
+    <row r="86" spans="1:13" ht="15" customHeight="1">
+      <c r="A86" s="112"/>
+      <c r="B86" s="126">
+        <v>79</v>
+      </c>
+      <c r="C86" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D85" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="80"/>
-      <c r="H85" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="I85" s="81" t="s">
+      <c r="D86" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="I86" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J85" s="82"/>
-      <c r="K85" s="79"/>
-      <c r="L85" s="79"/>
-      <c r="M85" s="136" t="s">
+      <c r="J86" s="81"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="135" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" customHeight="1">
-      <c r="A86" s="113"/>
-      <c r="B86" s="127">
-        <v>79</v>
-      </c>
-      <c r="C86" s="112" t="s">
+    <row r="87" spans="1:13" ht="15" customHeight="1">
+      <c r="A87" s="112"/>
+      <c r="B87" s="127">
+        <v>80</v>
+      </c>
+      <c r="C87" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D86" s="80" t="s">
-        <v>218</v>
-      </c>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="I86" s="81" t="s">
+      <c r="D87" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="I87" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J86" s="82"/>
-      <c r="K86" s="79"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="136" t="s">
+      <c r="J87" s="81"/>
+      <c r="K87" s="78"/>
+      <c r="L87" s="78"/>
+      <c r="M87" s="135" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1">
-      <c r="A87" s="113"/>
-      <c r="B87" s="128">
-        <v>80</v>
-      </c>
-      <c r="C87" s="112" t="s">
+    <row r="88" spans="1:13" ht="15" customHeight="1">
+      <c r="B88" s="126">
+        <v>81</v>
+      </c>
+      <c r="C88" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="D87" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="114" t="s">
-        <v>280</v>
-      </c>
-      <c r="I87" s="81" t="s">
+      <c r="D88" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="I88" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="J87" s="82"/>
-      <c r="K87" s="79"/>
-      <c r="L87" s="79"/>
-      <c r="M87" s="136" t="s">
+      <c r="J88" s="81"/>
+      <c r="K88" s="78"/>
+      <c r="L88" s="78"/>
+      <c r="M88" s="135" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" customHeight="1">
-      <c r="B88" s="127">
-        <v>81</v>
-      </c>
-      <c r="C88" s="112" t="s">
+    <row r="89" spans="1:13" ht="15" customHeight="1">
+      <c r="A89" s="129"/>
+      <c r="B89" s="128">
+        <v>82</v>
+      </c>
+      <c r="C89" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="D88" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="E88" s="80"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="80"/>
-      <c r="H88" s="114" t="s">
-        <v>259</v>
-      </c>
-      <c r="I88" s="81" t="s">
+      <c r="D89" s="121" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" s="121"/>
+      <c r="F89" s="121"/>
+      <c r="G89" s="121"/>
+      <c r="H89" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="I89" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="J88" s="82"/>
-      <c r="K88" s="79"/>
-      <c r="L88" s="79"/>
-      <c r="M88" s="136" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1">
-      <c r="A89" s="130"/>
-      <c r="B89" s="129">
-        <v>82</v>
-      </c>
-      <c r="C89" s="116" t="s">
+      <c r="J89" s="122"/>
+      <c r="K89" s="119"/>
+      <c r="L89" s="119"/>
+      <c r="M89" s="136" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" customHeight="1">
+      <c r="A90" s="129"/>
+      <c r="B90" s="131">
+        <v>83</v>
+      </c>
+      <c r="C90" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="D89" s="122" t="s">
-        <v>257</v>
-      </c>
-      <c r="E89" s="122"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="122"/>
-      <c r="H89" s="131" t="s">
-        <v>279</v>
-      </c>
-      <c r="I89" s="119" t="s">
+      <c r="D90" s="121" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="130" t="s">
+        <v>278</v>
+      </c>
+      <c r="I90" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="J89" s="123"/>
-      <c r="K89" s="120"/>
-      <c r="L89" s="120"/>
-      <c r="M89" s="137" t="s">
+      <c r="J90" s="122"/>
+      <c r="K90" s="119"/>
+      <c r="L90" s="119"/>
+      <c r="M90" s="136" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" customHeight="1">
-      <c r="A90" s="130"/>
-      <c r="B90" s="132">
-        <v>83</v>
-      </c>
-      <c r="C90" s="116" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="E90" s="122"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="122"/>
-      <c r="H90" s="131" t="s">
-        <v>278</v>
-      </c>
-      <c r="I90" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="J90" s="123"/>
-      <c r="K90" s="120"/>
-      <c r="L90" s="120"/>
-      <c r="M90" s="137" t="s">
-        <v>315</v>
-      </c>
-    </row>
     <row r="91" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="B91" s="129">
+      <c r="B91" s="128">
         <v>84</v>
       </c>
-      <c r="C91" s="133" t="s">
+      <c r="C91" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="D91" s="122" t="s">
+      <c r="D91" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="E91" s="122" t="s">
+      <c r="E91" s="121" t="s">
         <v>265</v>
       </c>
-      <c r="F91" s="122"/>
-      <c r="G91" s="122"/>
-      <c r="H91" s="118" t="s">
+      <c r="F91" s="121"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="I91" s="119" t="s">
+      <c r="I91" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="J91" s="123"/>
-      <c r="K91" s="120"/>
-      <c r="L91" s="120"/>
-      <c r="M91" s="137" t="s">
+      <c r="J91" s="122"/>
+      <c r="K91" s="119"/>
+      <c r="L91" s="119"/>
+      <c r="M91" s="136" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="B92" s="131">
+        <v>85</v>
+      </c>
+      <c r="C92" s="132" t="s">
+        <v>263</v>
+      </c>
+      <c r="D92" s="121"/>
+      <c r="E92" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" s="121"/>
+      <c r="G92" s="121"/>
+      <c r="H92" s="130" t="s">
+        <v>277</v>
+      </c>
+      <c r="I92" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="J92" s="122"/>
+      <c r="K92" s="119"/>
+      <c r="L92" s="119"/>
+      <c r="M92" s="136" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="16.899999999999999" customHeight="1">
-      <c r="B92" s="132">
-        <v>85</v>
-      </c>
-      <c r="C92" s="133" t="s">
-        <v>263</v>
-      </c>
-      <c r="D92" s="122"/>
-      <c r="E92" s="122" t="s">
-        <v>267</v>
-      </c>
-      <c r="F92" s="122"/>
-      <c r="G92" s="122"/>
-      <c r="H92" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="I92" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="J92" s="123"/>
-      <c r="K92" s="120"/>
-      <c r="L92" s="120"/>
-      <c r="M92" s="137" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="B93" s="14">
         <v>86</v>
       </c>
-      <c r="C93" s="134" t="s">
+      <c r="C93" s="133" t="s">
         <v>263</v>
       </c>
       <c r="D93" s="16"/>
@@ -6320,7 +6342,7 @@
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="126" t="s">
+      <c r="H93" s="125" t="s">
         <v>299</v>
       </c>
       <c r="I93" s="13" t="s">
@@ -6330,7 +6352,7 @@
       <c r="K93" s="24"/>
       <c r="L93" s="24"/>
       <c r="M93" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1">
@@ -6344,7 +6366,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="126" t="s">
+      <c r="H94" s="125" t="s">
         <v>276</v>
       </c>
       <c r="I94" s="13" t="s">
@@ -6363,26 +6385,26 @@
       <c r="B95" s="14">
         <v>88</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="142" t="s">
         <v>237</v>
       </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="126" t="s">
+      <c r="D95" s="167"/>
+      <c r="E95" s="167"/>
+      <c r="F95" s="167"/>
+      <c r="G95" s="167"/>
+      <c r="H95" s="168" t="s">
         <v>300</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="I95" s="169" t="s">
         <v>250</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="170" t="s">
         <v>252</v>
       </c>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="77" t="s">
-        <v>301</v>
+      <c r="K95" s="171"/>
+      <c r="L95" s="171"/>
+      <c r="M95" s="172" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1">
@@ -6396,8 +6418,8 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
-      <c r="H96" s="126" t="s">
-        <v>302</v>
+      <c r="H96" s="125" t="s">
+        <v>301</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>210</v>
@@ -6412,123 +6434,123 @@
       </c>
     </row>
     <row r="97" spans="2:13" ht="15" customHeight="1">
-      <c r="B97" s="129">
+      <c r="B97" s="128">
         <v>90</v>
       </c>
-      <c r="C97" s="116" t="s">
+      <c r="C97" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="D97" s="122"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="122"/>
-      <c r="G97" s="122"/>
-      <c r="H97" s="131" t="s">
+      <c r="D97" s="121"/>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="130" t="s">
+        <v>302</v>
+      </c>
+      <c r="I97" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="J97" s="122"/>
+      <c r="K97" s="119"/>
+      <c r="L97" s="119"/>
+      <c r="M97" s="136" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" ht="15" customHeight="1">
+      <c r="B98" s="131">
+        <v>91</v>
+      </c>
+      <c r="C98" s="115" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
+      <c r="G98" s="121"/>
+      <c r="H98" s="130" t="s">
         <v>303</v>
       </c>
-      <c r="I97" s="119" t="s">
+      <c r="I98" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="J97" s="123"/>
-      <c r="K97" s="120"/>
-      <c r="L97" s="120"/>
-      <c r="M97" s="137" t="s">
+      <c r="J98" s="122"/>
+      <c r="K98" s="119"/>
+      <c r="L98" s="119"/>
+      <c r="M98" s="136" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="15" customHeight="1">
+      <c r="B99" s="128">
+        <v>92</v>
+      </c>
+      <c r="C99" s="115" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="121"/>
+      <c r="H99" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="I99" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="J99" s="122"/>
+      <c r="K99" s="119"/>
+      <c r="L99" s="119"/>
+      <c r="M99" s="136" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13" ht="15" customHeight="1">
-      <c r="B98" s="132">
-        <v>91</v>
-      </c>
-      <c r="C98" s="116" t="s">
-        <v>247</v>
-      </c>
-      <c r="D98" s="122"/>
-      <c r="E98" s="122"/>
-      <c r="F98" s="122"/>
-      <c r="G98" s="122"/>
-      <c r="H98" s="131" t="s">
-        <v>304</v>
-      </c>
-      <c r="I98" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="J98" s="123"/>
-      <c r="K98" s="120"/>
-      <c r="L98" s="120"/>
-      <c r="M98" s="137" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13" ht="15" customHeight="1">
-      <c r="B99" s="129">
-        <v>92</v>
-      </c>
-      <c r="C99" s="116" t="s">
-        <v>246</v>
-      </c>
-      <c r="D99" s="122"/>
-      <c r="E99" s="122"/>
-      <c r="F99" s="122"/>
-      <c r="G99" s="122"/>
-      <c r="H99" s="131" t="s">
-        <v>305</v>
-      </c>
-      <c r="I99" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="J99" s="123"/>
-      <c r="K99" s="120"/>
-      <c r="L99" s="120"/>
-      <c r="M99" s="137" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="15" customHeight="1">
       <c r="B100" s="12">
         <v>93</v>
       </c>
-      <c r="C100" s="167" t="s">
+      <c r="C100" s="142" t="s">
         <v>236</v>
       </c>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="126" t="s">
+      <c r="D100" s="167"/>
+      <c r="E100" s="167"/>
+      <c r="F100" s="167"/>
+      <c r="G100" s="167"/>
+      <c r="H100" s="168" t="s">
         <v>248</v>
       </c>
-      <c r="I100" s="13" t="s">
+      <c r="I100" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="J100" s="2"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="77" t="s">
-        <v>335</v>
+      <c r="J100" s="170"/>
+      <c r="K100" s="171"/>
+      <c r="L100" s="171"/>
+      <c r="M100" s="172" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="16.149999999999999" customHeight="1">
       <c r="B101" s="14">
         <v>94</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="142" t="s">
         <v>260</v>
       </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="126" t="s">
-        <v>306</v>
-      </c>
-      <c r="I101" s="13" t="s">
+      <c r="D101" s="167"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="168" t="s">
+        <v>305</v>
+      </c>
+      <c r="I101" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24" t="s">
-        <v>301</v>
+      <c r="J101" s="170"/>
+      <c r="K101" s="171"/>
+      <c r="L101" s="171"/>
+      <c r="M101" s="172" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="16.149999999999999" customHeight="1">
@@ -6542,7 +6564,7 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
-      <c r="H102" s="135"/>
+      <c r="H102" s="134"/>
       <c r="I102" s="13" t="s">
         <v>210</v>
       </c>
@@ -6555,33 +6577,33 @@
       <c r="B103" s="12">
         <v>96</v>
       </c>
-      <c r="C103" s="167" t="s">
+      <c r="C103" s="142" t="s">
+        <v>332</v>
+      </c>
+      <c r="D103" s="167"/>
+      <c r="E103" s="167"/>
+      <c r="F103" s="167"/>
+      <c r="G103" s="167"/>
+      <c r="H103" s="173"/>
+      <c r="I103" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="J103" s="170"/>
+      <c r="K103" s="171"/>
+      <c r="L103" s="171"/>
+      <c r="M103" s="172" t="s">
         <v>333</v>
       </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="135"/>
-      <c r="I103" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="J103" s="2"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="77" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="104" spans="2:13" ht="16.899999999999999" customHeight="1">
-      <c r="B104" s="138"/>
-      <c r="C104" s="139"/>
-      <c r="D104" s="140"/>
-      <c r="E104" s="140"/>
-      <c r="F104" s="140"/>
-      <c r="G104" s="140"/>
-      <c r="H104" s="141"/>
-      <c r="I104" s="142"/>
+      <c r="B104" s="137"/>
+      <c r="C104" s="138"/>
+      <c r="D104" s="139"/>
+      <c r="E104" s="139"/>
+      <c r="F104" s="139"/>
+      <c r="G104" s="139"/>
+      <c r="H104" s="140"/>
+      <c r="I104" s="141"/>
     </row>
     <row r="105" spans="2:13" ht="45">
       <c r="C105" s="11" t="s">
@@ -6679,8 +6701,8 @@
     <cfRule type="duplicateValues" dxfId="24" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="1" priority="362" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="363" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="362" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="363" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1"/>
@@ -6767,7 +6789,7 @@
     <hyperlink ref="M13" r:id="rId82"/>
     <hyperlink ref="M67" r:id="rId83"/>
     <hyperlink ref="M68" r:id="rId84"/>
-    <hyperlink ref="M95" r:id="rId85" display="http://arcteryx.firstmall.kr/goods/catalog?code=0001"/>
+    <hyperlink ref="M95" r:id="rId85"/>
     <hyperlink ref="M66" r:id="rId86"/>
     <hyperlink ref="M97" r:id="rId87"/>
     <hyperlink ref="M99" r:id="rId88"/>
@@ -6795,9 +6817,10 @@
     <hyperlink ref="M88" r:id="rId110"/>
     <hyperlink ref="M103" r:id="rId111"/>
     <hyperlink ref="M100" r:id="rId112"/>
+    <hyperlink ref="M101" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId113"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId114"/>
 </worksheet>
 </file>
 
@@ -7887,48 +7910,48 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G30">
-    <cfRule type="duplicateValues" dxfId="23" priority="25" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="26" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:G41">
-    <cfRule type="duplicateValues" dxfId="21" priority="15" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="duplicateValues" dxfId="19" priority="308" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="309" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="308" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="309" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="duplicateValues" dxfId="17" priority="318" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="319" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="318" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="319" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G34">
-    <cfRule type="duplicateValues" dxfId="15" priority="11" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="duplicateValues" dxfId="13" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="duplicateValues" dxfId="11" priority="7" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="duplicateValues" dxfId="9" priority="5" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="duplicateValues" dxfId="7" priority="3" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G44 G1:G16 G46:G65536">
-    <cfRule type="duplicateValues" dxfId="5" priority="320" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="321" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="320" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="321" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:G65536">
-    <cfRule type="duplicateValues" dxfId="3" priority="330" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="331" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="330" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="331" stopIfTrue="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G28" r:id="rId1"/>
